--- a/input_data_steel.xlsx
+++ b/input_data_steel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TakumaWatari/Dropbox/GitHub/feasible-material-supply/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BDD691-CB1E-B44B-B164-F6648CBE61B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CD5BAF-BD8F-D045-B607-ECA0A154F2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-340" yWindow="-18300" windowWidth="27900" windowHeight="16800" xr2:uid="{3110FA2E-7F46-FC43-9682-B7B27E4CE74F}"/>
   </bookViews>
@@ -216,7 +216,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -241,13 +241,7 @@
     <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -762,7 +756,7 @@
         <v>58.01576841758321</v>
       </c>
       <c r="P3" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q3" s="2">
         <v>1647.4050279999999</v>
@@ -824,7 +818,7 @@
         <v>58.098979567739903</v>
       </c>
       <c r="P4" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q4" s="2">
         <v>1658.7856429999999</v>
@@ -886,7 +880,7 @@
         <v>64.606234152809535</v>
       </c>
       <c r="P5" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q5" s="2">
         <v>1672.564382</v>
@@ -948,7 +942,7 @@
         <v>67.991771318853466</v>
       </c>
       <c r="P6" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q6" s="2">
         <v>1687.0128050000001</v>
@@ -1010,7 +1004,7 @@
         <v>69.142308717749444</v>
       </c>
       <c r="P7" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q7" s="2">
         <v>1701.6474040000001</v>
@@ -1072,7 +1066,7 @@
         <v>84.913010780653266</v>
       </c>
       <c r="P8" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q8" s="2">
         <v>1716.4730509999999</v>
@@ -1134,7 +1128,7 @@
         <v>84.877631040736674</v>
       </c>
       <c r="P9" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q9" s="2">
         <v>1731.494784</v>
@@ -1196,7 +1190,7 @@
         <v>109.8328053820296</v>
       </c>
       <c r="P10" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q10" s="2">
         <v>1746.736854</v>
@@ -1258,7 +1252,7 @@
         <v>80.2851832356682</v>
       </c>
       <c r="P11" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q11" s="2">
         <v>1762.2002070000001</v>
@@ -1320,7 +1314,7 @@
         <v>99.404812922494827</v>
       </c>
       <c r="P12" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q12" s="2">
         <v>1777.0677479999999</v>
@@ -1382,7 +1376,7 @@
         <v>111.0845595611937</v>
       </c>
       <c r="P13" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q13" s="2">
         <v>1793.3235999999999</v>
@@ -1444,7 +1438,7 @@
         <v>110.37651699322878</v>
       </c>
       <c r="P14" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q14" s="2">
         <v>1804.9206839999999</v>
@@ -1506,7 +1500,7 @@
         <v>131.16669973943513</v>
       </c>
       <c r="P15" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q15" s="2">
         <v>1817.9909520000001</v>
@@ -1568,7 +1562,7 @@
         <v>139.65124143016118</v>
       </c>
       <c r="P16" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q16" s="2">
         <v>1830.4611870000001</v>
@@ -1630,7 +1624,7 @@
         <v>107.34576717540405</v>
       </c>
       <c r="P17" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q17" s="2">
         <v>1843.1315890000001</v>
@@ -1692,7 +1686,7 @@
         <v>112.17132260254463</v>
       </c>
       <c r="P18" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q18" s="2">
         <v>1855.9490269999999</v>
@@ -1754,7 +1748,7 @@
         <v>141.18514621171303</v>
       </c>
       <c r="P19" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q19" s="2">
         <v>1868.851504</v>
@@ -1816,7 +1810,7 @@
         <v>145.87771745364191</v>
       </c>
       <c r="P20" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q20" s="2">
         <v>1881.8531760000001</v>
@@ -1878,7 +1872,7 @@
         <v>137.10656386810942</v>
       </c>
       <c r="P21" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q21" s="2">
         <v>1895.0370419999999</v>
@@ -1940,7 +1934,7 @@
         <v>105.25680665781653</v>
       </c>
       <c r="P22" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q22" s="2">
         <v>1909.0443090000001</v>
@@ -2002,7 +1996,7 @@
         <v>129.86061305069737</v>
       </c>
       <c r="P23" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q23" s="2">
         <v>1926.2174319999999</v>
@@ -2064,7 +2058,7 @@
         <v>80.572303487637569</v>
       </c>
       <c r="P24" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q24" s="2">
         <v>1939.5878259999999</v>
@@ -2126,7 +2120,7 @@
         <v>128.4010340326206</v>
       </c>
       <c r="P25" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q25" s="2">
         <v>1955.9716309999999</v>
@@ -2188,7 +2182,7 @@
         <v>141.60356393242131</v>
       </c>
       <c r="P26" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q26" s="2">
         <v>1973.057174</v>
@@ -2250,7 +2244,7 @@
         <v>145.74143629977709</v>
       </c>
       <c r="P27" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q27" s="2">
         <v>1990.416385</v>
@@ -2312,7 +2306,7 @@
         <v>163.47161039890699</v>
       </c>
       <c r="P28" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q28" s="2">
         <v>2008.0520879999999</v>
@@ -2374,7 +2368,7 @@
         <v>170.00241371847858</v>
       </c>
       <c r="P29" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q29" s="2">
         <v>2025.945381</v>
@@ -2436,7 +2430,7 @@
         <v>186.1406097784191</v>
       </c>
       <c r="P30" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q30" s="2">
         <v>2044.09707</v>
@@ -2498,7 +2492,7 @@
         <v>199.95778646992915</v>
       </c>
       <c r="P31" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q31" s="2">
         <v>2062.5439719999999</v>
@@ -2560,7 +2554,7 @@
         <v>220.3186021415685</v>
       </c>
       <c r="P32" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q32" s="2">
         <v>2081.6834680000002</v>
@@ -2622,7 +2616,7 @@
         <v>174.68280945272835</v>
       </c>
       <c r="P33" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q33" s="2">
         <v>2104.0673870000001</v>
@@ -2684,7 +2678,7 @@
         <v>127.02420431046809</v>
       </c>
       <c r="P34" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q34" s="2">
         <v>2122.176586</v>
@@ -2746,7 +2740,7 @@
         <v>92.882337643267491</v>
       </c>
       <c r="P35" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q35" s="2">
         <v>2143.5175250000002</v>
@@ -2808,7 +2802,7 @@
         <v>124.2424693593411</v>
       </c>
       <c r="P36" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q36" s="2">
         <v>2165.5404279999998</v>
@@ -2870,7 +2864,7 @@
         <v>152.01188943542479</v>
       </c>
       <c r="P37" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q37" s="2">
         <v>2187.8367929999999</v>
@@ -2932,7 +2926,7 @@
         <v>183.8519308695254</v>
       </c>
       <c r="P38" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q38" s="2">
         <v>2210.4129720000001</v>
@@ -2994,7 +2988,7 @@
         <v>230.66232269879777</v>
       </c>
       <c r="P39" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q39" s="2">
         <v>2233.367401</v>
@@ -3056,7 +3050,7 @@
         <v>253.45575670828131</v>
       </c>
       <c r="P40" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q40" s="2">
         <v>2256.6718660000001</v>
@@ -3118,7 +3112,7 @@
         <v>205.23469083492827</v>
       </c>
       <c r="P41" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q41" s="2">
         <v>2280.3429070000002</v>
@@ -3180,7 +3174,7 @@
         <v>256.70883379694749</v>
       </c>
       <c r="P42" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q42" s="2">
         <v>2303.096438</v>
@@ -3242,7 +3236,7 @@
         <v>264.04285911466741</v>
       </c>
       <c r="P43" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q43" s="2">
         <v>2327.3577439999999</v>
@@ -3304,7 +3298,7 @@
         <v>271.11707189034229</v>
       </c>
       <c r="P44" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q44" s="2">
         <v>2344.7885339999998</v>
@@ -3366,7 +3360,7 @@
         <v>280.02779520775744</v>
       </c>
       <c r="P45" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q45" s="2">
         <v>2363.887111</v>
@@ -3428,7 +3422,7 @@
         <v>293.88639685625338</v>
       </c>
       <c r="P46" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q46" s="2">
         <v>2381.7589389999998</v>
@@ -3490,7 +3484,7 @@
         <v>277.27671398167075</v>
       </c>
       <c r="P47" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q47" s="2">
         <v>2399.6599200000001</v>
@@ -3552,7 +3546,7 @@
         <v>206.31029086380863</v>
       </c>
       <c r="P48" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q48" s="2">
         <v>2417.4137000000001</v>
@@ -3614,7 +3608,7 @@
         <v>203.01329250568452</v>
       </c>
       <c r="P49" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q49" s="2">
         <v>2435.0486019999998</v>
@@ -3676,7 +3670,7 @@
         <v>247.45022304547462</v>
       </c>
       <c r="P50" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q50" s="2">
         <v>2454.0458309999999</v>
@@ -3738,7 +3732,7 @@
         <v>281.69403219282509</v>
       </c>
       <c r="P51" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q51" s="2">
         <v>2474.6480900000001</v>
@@ -3800,7 +3794,7 @@
         <v>290.33041033496988</v>
       </c>
       <c r="P52" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q52" s="2">
         <v>2500.8217690000001</v>
@@ -3862,7 +3856,7 @@
         <v>344.08685524254139</v>
       </c>
       <c r="P53" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q53" s="2">
         <v>2536.4310180000002</v>
@@ -3924,7 +3918,7 @@
         <v>383.41580214512265</v>
       </c>
       <c r="P54" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q54" s="2">
         <v>2584.0342270000001</v>
@@ -3986,7 +3980,7 @@
         <v>383.05161930584086</v>
       </c>
       <c r="P55" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q55" s="2">
         <v>2630.8616900000002</v>
@@ -4048,7 +4042,7 @@
         <v>425.79502924950219</v>
       </c>
       <c r="P56" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q56" s="2">
         <v>2677.6090609999901</v>
@@ -4110,7 +4104,7 @@
         <v>405.65388046099929</v>
       </c>
       <c r="P57" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q57" s="2">
         <v>2724.8467539999901</v>
@@ -4172,7 +4166,7 @@
         <v>482.4755624606031</v>
       </c>
       <c r="P58" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q58" s="2">
         <v>2773.0199149999999</v>
@@ -4234,7 +4228,7 @@
         <v>509.7028255856244</v>
       </c>
       <c r="P59" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q59" s="2">
         <v>2822.4432539999898</v>
@@ -4296,7 +4290,7 @@
         <v>528.44033888797367</v>
       </c>
       <c r="P60" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q60" s="2">
         <v>2873.3060580000001</v>
@@ -4358,7 +4352,7 @@
         <v>495.86395582172679</v>
       </c>
       <c r="P61" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q61" s="2">
         <v>2925.6866799999998</v>
@@ -4420,7 +4414,7 @@
         <v>549.47624487408746</v>
       </c>
       <c r="P62" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q62" s="2">
         <v>2979.5761470000002</v>
@@ -4482,7 +4476,7 @@
         <v>622.68320027048708</v>
       </c>
       <c r="P63" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q63" s="2">
         <v>3034.9497150000002</v>
@@ -4544,7 +4538,7 @@
         <v>631.59589357299296</v>
       </c>
       <c r="P64" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q64" s="2">
         <v>3091.8435129999998</v>
@@ -4606,7 +4600,7 @@
         <v>648.70470842175223</v>
       </c>
       <c r="P65" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q65" s="2">
         <v>3150.4207609999999</v>
@@ -4668,7 +4662,7 @@
         <v>694.14634815621037</v>
       </c>
       <c r="P66" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q66" s="2">
         <v>3211.0009460000001</v>
@@ -4730,7 +4724,7 @@
         <v>783.27218464420696</v>
       </c>
       <c r="P67" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q67" s="2">
         <v>3273.9782719999998</v>
@@ -4792,7 +4786,7 @@
         <v>822.80308262828214</v>
       </c>
       <c r="P68" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q68" s="2">
         <v>3339.5835099999999</v>
@@ -4854,7 +4848,7 @@
         <v>849.80971569100552</v>
       </c>
       <c r="P69" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q69" s="2">
         <v>3407.9226309999999</v>
@@ -4916,7 +4910,7 @@
         <v>876.80507834574576</v>
       </c>
       <c r="P70" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q70" s="2">
         <v>3478.7701040000002</v>
@@ -4978,7 +4972,7 @@
         <v>936.23218625866377</v>
       </c>
       <c r="P71" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q71" s="2">
         <v>3551.599436</v>
@@ -5040,7 +5034,7 @@
         <v>1007.9847405745545</v>
       </c>
       <c r="P72" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q72" s="2">
         <v>3625.680965</v>
@@ -5102,7 +5096,7 @@
         <v>1039.568347553967</v>
       </c>
       <c r="P73" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q73" s="2">
         <v>3700.437042</v>
@@ -5164,7 +5158,7 @@
         <v>1014.473962291967</v>
       </c>
       <c r="P74" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q74" s="2">
         <v>3775.7600299999999</v>
@@ -5226,7 +5220,7 @@
         <v>1090.3420352474607</v>
       </c>
       <c r="P75" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q75" s="2">
         <v>3851.650588</v>
@@ -5288,7 +5282,7 @@
         <v>1199.5815979648673</v>
       </c>
       <c r="P76" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q76" s="2">
         <v>3927.7805189999999</v>
@@ -5350,7 +5344,7 @@
         <v>1295.836187709376</v>
       </c>
       <c r="P77" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q77" s="2">
         <v>4003.7941780000001</v>
@@ -5412,7 +5406,7 @@
         <v>1183.283645935642</v>
       </c>
       <c r="P78" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q78" s="2">
         <v>4079.480474</v>
@@ -5474,7 +5468,7 @@
         <v>1231.3677608604557</v>
       </c>
       <c r="P79" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q79" s="2">
         <v>4154.666827</v>
@@ -5536,7 +5530,7 @@
         <v>1223.1116204703264</v>
       </c>
       <c r="P80" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q80" s="2">
         <v>4229.5059190000002</v>
@@ -5598,7 +5592,7 @@
         <v>1282.536693597496</v>
       </c>
       <c r="P81" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q81" s="2">
         <v>4304.5335989999903</v>
@@ -5660,7 +5654,7 @@
         <v>1330.4971366768652</v>
       </c>
       <c r="P82" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q82" s="2">
         <v>4380.5061850000002</v>
@@ -5722,7 +5716,7 @@
         <v>1267.016920540698</v>
       </c>
       <c r="P83" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q83" s="2">
         <v>4458.0034660000001</v>
@@ -5784,7 +5778,7 @@
         <v>1248.1898187272086</v>
       </c>
       <c r="P84" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q84" s="2">
         <v>4536.9966189999996</v>
@@ -5846,7 +5840,7 @@
         <v>1128.8106379917347</v>
       </c>
       <c r="P85" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q85" s="2">
         <v>4617.3865260000002</v>
@@ -5908,7 +5902,7 @@
         <v>1159.206201692889</v>
       </c>
       <c r="P86" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q86" s="2">
         <v>4699.5691870000001</v>
@@ -5970,7 +5964,7 @@
         <v>1233.9264234751768</v>
       </c>
       <c r="P87" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q87" s="2">
         <v>4784.0115169999999</v>
@@ -6032,7 +6026,7 @@
         <v>1259.3629172212907</v>
       </c>
       <c r="P88" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q88" s="2">
         <v>4870.9216660000002</v>
@@ -6094,7 +6088,7 @@
         <v>1209.1062048846602</v>
       </c>
       <c r="P89" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q89" s="2">
         <v>4960.5680000000002</v>
@@ -6156,7 +6150,7 @@
         <v>1216.8940830604281</v>
       </c>
       <c r="P90" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q90" s="2">
         <v>5052.5219980000002</v>
@@ -6218,7 +6212,7 @@
         <v>1286.6422892235473</v>
       </c>
       <c r="P91" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q91" s="2">
         <v>5145.4259940000002</v>
@@ -6280,7 +6274,7 @@
         <v>1314.6679935476182</v>
       </c>
       <c r="P92" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q92" s="2">
         <v>5237.4414339999903</v>
@@ -6342,7 +6336,7 @@
         <v>1292.294595336537</v>
       </c>
       <c r="P93" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q93" s="2">
         <v>5327.231041</v>
@@ -6404,7 +6398,7 @@
         <v>1203.5847566386819</v>
       </c>
       <c r="P94" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q94" s="2">
         <v>5414.2893829999903</v>
@@ -6466,7 +6460,7 @@
         <v>1169.504381132411</v>
       </c>
       <c r="P95" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q95" s="2">
         <v>5498.9198929999902</v>
@@ -6528,7 +6522,7 @@
         <v>1154.9770749946013</v>
       </c>
       <c r="P96" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q96" s="2">
         <v>5581.5975979999903</v>
@@ -6590,7 +6584,7 @@
         <v>1150.6842676263941</v>
       </c>
       <c r="P97" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q97" s="2">
         <v>5663.1504279999908</v>
@@ -6652,7 +6646,7 @@
         <v>1175.2932956765544</v>
       </c>
       <c r="P98" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q98" s="2">
         <v>5744.2129299999997</v>
@@ -6714,7 +6708,7 @@
         <v>1169.8615714650773</v>
       </c>
       <c r="P99" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q99" s="2">
         <v>5824.8919310000001</v>
@@ -6776,7 +6770,7 @@
         <v>1239.5288109592711</v>
       </c>
       <c r="P100" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q100" s="2">
         <v>5905.0456469999999</v>
@@ -6838,7 +6832,7 @@
         <v>1209.2394436443155</v>
       </c>
       <c r="P101" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q101" s="2">
         <v>5984.7940749999998</v>
@@ -6900,7 +6894,7 @@
         <v>1218.9116153921025</v>
       </c>
       <c r="P102" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q102" s="2">
         <v>6064.2390329999998</v>
@@ -6962,7 +6956,7 @@
         <v>1323.4555774273908</v>
       </c>
       <c r="P103" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q103" s="2">
         <v>6143.4938060000004</v>
@@ -7024,7 +7018,7 @@
         <v>1334.093674562652</v>
       </c>
       <c r="P104" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q104" s="2">
         <v>6222.6265309999999</v>
@@ -7086,7 +7080,7 @@
         <v>1417.557941482027</v>
       </c>
       <c r="P105" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q105" s="2">
         <v>6301.7731720000002</v>
@@ -7148,7 +7142,7 @@
         <v>1527.1034403400395</v>
       </c>
       <c r="P106" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q106" s="2">
         <v>6381.1851409999999</v>
@@ -7210,7 +7204,7 @@
         <v>1689.3630480009624</v>
       </c>
       <c r="P107" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q107" s="2">
         <v>6461.1593910000001</v>
@@ -7272,7 +7266,7 @@
         <v>1829.9223780983073</v>
       </c>
       <c r="P108" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q108" s="2">
         <v>6541.9069559999998</v>
@@ -7334,7 +7328,7 @@
         <v>2002.0916721932667</v>
       </c>
       <c r="P109" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q109" s="2">
         <v>6623.5179170000001</v>
@@ -7396,7 +7390,7 @@
         <v>2177.6203509190209</v>
       </c>
       <c r="P110" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q110" s="2">
         <v>6705.9466429999902</v>
@@ -7458,7 +7452,7 @@
         <v>2157.0750358163937</v>
       </c>
       <c r="P111" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q111" s="2">
         <v>6789.0886719999999</v>
@@ -7520,7 +7514,7 @@
         <v>2058.4257893483673</v>
       </c>
       <c r="P112" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q112" s="2">
         <v>6872.7669880000003</v>
@@ -7582,7 +7576,7 @@
         <v>2363.6845040487892</v>
       </c>
       <c r="P113" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q113" s="2">
         <v>6956.8235880000002</v>
@@ -7644,7 +7638,7 @@
         <v>2533.3420927675861</v>
       </c>
       <c r="P114" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q114" s="2">
         <v>7041.194168</v>
@@ -7706,7 +7700,7 @@
         <v>2598.2563185275299</v>
       </c>
       <c r="P115" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q115" s="2">
         <v>7125.8279570000004</v>
@@ -7768,7 +7762,7 @@
         <v>2827.3359021218243</v>
       </c>
       <c r="P116" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q116" s="2">
         <v>7210.5820409999997</v>
@@ -7830,7 +7824,7 @@
         <v>2868.3807932810578</v>
       </c>
       <c r="P117" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q117" s="2">
         <v>7295.2907590000004</v>
@@ -7892,7 +7886,7 @@
         <v>2793.4807148213777</v>
       </c>
       <c r="P118" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q118" s="2">
         <v>7379.7969670000002</v>
@@ -7954,7 +7948,7 @@
         <v>2774.4182972169619</v>
       </c>
       <c r="P119" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q119" s="2">
         <v>7464.0219339999903</v>
@@ -8016,7 +8010,7 @@
         <v>2876.6413177768291</v>
       </c>
       <c r="P120" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q120" s="2">
         <v>7547.8589000000002</v>
@@ -8078,7 +8072,7 @@
         <v>3021.9161824450102</v>
       </c>
       <c r="P121" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q121" s="2">
         <v>7631.0911130000004</v>
@@ -8140,7 +8134,7 @@
         <v>3130.4257274931788</v>
       </c>
       <c r="P122" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q122" s="2">
         <v>7713.4682050000001</v>
@@ -8202,7 +8196,7 @@
         <v>3160.2768320165706</v>
       </c>
       <c r="P123" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q123" s="2">
         <v>7794.7987289999901</v>
@@ -8264,7 +8258,7 @@
         <v>3252.3695608627754</v>
       </c>
       <c r="P124" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q124" s="2">
         <v>7874.9657319999997</v>
@@ -8318,7 +8312,7 @@
         <v>3252.3695608627754</v>
       </c>
       <c r="P125" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q125" s="2">
         <v>7953.952577</v>
@@ -8366,7 +8360,7 @@
         <v>3264.821306371261</v>
       </c>
       <c r="P126" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q126" s="2">
         <v>8031.800338</v>
@@ -8414,7 +8408,7 @@
         <v>3247.5669448583767</v>
       </c>
       <c r="P127" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q127" s="2">
         <v>8108.6052550000004</v>
@@ -8462,7 +8456,7 @@
         <v>3205.9566367762795</v>
       </c>
       <c r="P128" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q128" s="2">
         <v>8184.4374529999996</v>
@@ -8510,7 +8504,7 @@
         <v>3144.6084969122612</v>
       </c>
       <c r="P129" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q129" s="2">
         <v>8259.2766510000001</v>
@@ -8558,7 +8552,7 @@
         <v>3067.4979197663015</v>
       </c>
       <c r="P130" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q130" s="2">
         <v>8333.0783179999999</v>
@@ -8606,7 +8600,7 @@
         <v>2978.0366730984279</v>
       </c>
       <c r="P131" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q131" s="2">
         <v>8405.8633009999994</v>
@@ -8654,7 +8648,7 @@
         <v>2879.1428855183572</v>
       </c>
       <c r="P132" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q132" s="2">
         <v>8477.66072299999</v>
@@ -8702,7 +8696,7 @@
         <v>2773.3029334989733</v>
       </c>
       <c r="P133" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q133" s="2">
         <v>8548.4873709999902</v>
@@ -8750,7 +8744,7 @@
         <v>2662.626125338958</v>
       </c>
       <c r="P134" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q134" s="2">
         <v>8618.3494539999992</v>
@@ -8798,7 +8792,7 @@
         <v>2548.8929830740731</v>
       </c>
       <c r="P135" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q135" s="2">
         <v>8687.2278729999998</v>
@@ -8846,7 +8840,7 @@
         <v>2433.5978369697978</v>
       </c>
       <c r="P136" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q136" s="2">
         <v>8755.0835119999992</v>
@@ -8894,7 +8888,7 @@
         <v>2317.9863699683642</v>
       </c>
       <c r="P137" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q137" s="2">
         <v>8821.8627049999996</v>
@@ -8942,7 +8936,7 @@
         <v>2203.0886803665826</v>
       </c>
       <c r="P138" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q138" s="2">
         <v>8887.5242290000006</v>
@@ -8990,7 +8984,7 @@
         <v>2089.7483692193537</v>
       </c>
       <c r="P139" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q139" s="2">
         <v>8952.0488850000002</v>
@@ -9038,7 +9032,7 @@
         <v>1978.6481037367751</v>
       </c>
       <c r="P140" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q140" s="2">
         <v>9015.4376159999993</v>
@@ -9086,7 +9080,7 @@
         <v>1870.3320585873389</v>
       </c>
       <c r="P141" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q141" s="2">
         <v>9077.6936449999994</v>
@@ -9134,7 +9128,7 @@
         <v>1765.2255929233716</v>
       </c>
       <c r="P142" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q142" s="2">
         <v>9138.8285620000006</v>
@@ -9182,7 +9176,7 @@
         <v>1663.6524815578041</v>
       </c>
       <c r="P143" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q143" s="2">
         <v>9198.8473819999999</v>
@@ -9230,7 +9224,7 @@
         <v>1565.8499835506559</v>
       </c>
       <c r="P144" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q144" s="2">
         <v>9257.7454830000006</v>
@@ -9278,7 +9272,7 @@
         <v>1471.9820000669426</v>
       </c>
       <c r="P145" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q145" s="2">
         <v>9315.5081529999898</v>
@@ -9326,7 +9320,7 @@
         <v>1382.150545348625</v>
       </c>
       <c r="P146" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q146" s="2">
         <v>9372.1182470000003</v>
@@ -9374,7 +9368,7 @@
         <v>1296.4057296460874</v>
       </c>
       <c r="P147" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q147" s="2">
         <v>9427.5553820000005</v>
@@ -9422,7 +9416,7 @@
         <v>1214.7544306607747</v>
       </c>
       <c r="P148" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q148" s="2">
         <v>9481.8032719999992</v>
@@ -9470,7 +9464,7 @@
         <v>1137.1678101743476</v>
       </c>
       <c r="P149" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q149" s="2">
         <v>9534.8546729999998</v>
@@ -9518,7 +9512,7 @@
         <v>1063.5878148249999</v>
       </c>
       <c r="P150" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q150" s="2">
         <v>9586.7077489999992</v>
@@ -9566,7 +9560,7 @@
         <v>993.93278420909337</v>
       </c>
       <c r="P151" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q151" s="2">
         <v>9637.3573199999992</v>
@@ -9614,7 +9608,7 @@
         <v>928.10227543048893</v>
       </c>
       <c r="P152" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q152" s="2">
         <v>9686.8001459999996</v>
@@ -9662,7 +9656,7 @@
         <v>865.98120070686343</v>
       </c>
       <c r="P153" s="2">
-        <v>472.22599999999994</v>
+        <v>1222.232</v>
       </c>
       <c r="Q153" s="2">
         <v>9735.0339000000004</v>
@@ -9691,2610 +9685,2608 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="4" width="10.7109375" style="8"/>
-    <col min="5" max="5" width="11.7109375" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="10.7109375" style="8"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="9"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="8">
+      <c r="A3">
         <v>1900</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C3" s="10">
-        <v>840</v>
-      </c>
-      <c r="D3" s="10">
-        <v>100</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="C3" s="2">
+        <v>840</v>
+      </c>
+      <c r="D3" s="2">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="8">
+      <c r="A4">
         <v>1901</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C4" s="10">
-        <v>840</v>
-      </c>
-      <c r="D4" s="10">
-        <v>100</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="C4" s="2">
+        <v>840</v>
+      </c>
+      <c r="D4" s="2">
+        <v>100</v>
+      </c>
+      <c r="E4" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="8">
+      <c r="A5">
         <v>1902</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C5" s="10">
-        <v>840</v>
-      </c>
-      <c r="D5" s="10">
-        <v>100</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="C5" s="2">
+        <v>840</v>
+      </c>
+      <c r="D5" s="2">
+        <v>100</v>
+      </c>
+      <c r="E5" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="8">
+      <c r="A6">
         <v>1903</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C6" s="10">
-        <v>840</v>
-      </c>
-      <c r="D6" s="10">
-        <v>100</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="C6" s="2">
+        <v>840</v>
+      </c>
+      <c r="D6" s="2">
+        <v>100</v>
+      </c>
+      <c r="E6" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="8">
+      <c r="A7">
         <v>1904</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C7" s="10">
-        <v>840</v>
-      </c>
-      <c r="D7" s="10">
-        <v>100</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="C7" s="2">
+        <v>840</v>
+      </c>
+      <c r="D7" s="2">
+        <v>100</v>
+      </c>
+      <c r="E7" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="8">
+      <c r="A8">
         <v>1905</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C8" s="10">
-        <v>840</v>
-      </c>
-      <c r="D8" s="10">
-        <v>100</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="C8" s="2">
+        <v>840</v>
+      </c>
+      <c r="D8" s="2">
+        <v>100</v>
+      </c>
+      <c r="E8" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="8">
+      <c r="A9">
         <v>1906</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C9" s="10">
-        <v>840</v>
-      </c>
-      <c r="D9" s="10">
-        <v>100</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="C9" s="2">
+        <v>840</v>
+      </c>
+      <c r="D9" s="2">
+        <v>100</v>
+      </c>
+      <c r="E9" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="8">
+      <c r="A10">
         <v>1907</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C10" s="10">
-        <v>840</v>
-      </c>
-      <c r="D10" s="10">
-        <v>100</v>
-      </c>
-      <c r="E10" s="10">
+      <c r="C10" s="2">
+        <v>840</v>
+      </c>
+      <c r="D10" s="2">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="8">
+      <c r="A11">
         <v>1908</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C11" s="10">
-        <v>840</v>
-      </c>
-      <c r="D11" s="10">
-        <v>100</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="C11" s="2">
+        <v>840</v>
+      </c>
+      <c r="D11" s="2">
+        <v>100</v>
+      </c>
+      <c r="E11" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="8">
+      <c r="A12">
         <v>1909</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C12" s="10">
-        <v>840</v>
-      </c>
-      <c r="D12" s="10">
-        <v>100</v>
-      </c>
-      <c r="E12" s="10">
+      <c r="C12" s="2">
+        <v>840</v>
+      </c>
+      <c r="D12" s="2">
+        <v>100</v>
+      </c>
+      <c r="E12" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="8">
+      <c r="A13">
         <v>1910</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C13" s="10">
-        <v>840</v>
-      </c>
-      <c r="D13" s="10">
-        <v>100</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="C13" s="2">
+        <v>840</v>
+      </c>
+      <c r="D13" s="2">
+        <v>100</v>
+      </c>
+      <c r="E13" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="8">
+      <c r="A14">
         <v>1911</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C14" s="10">
-        <v>840</v>
-      </c>
-      <c r="D14" s="10">
-        <v>100</v>
-      </c>
-      <c r="E14" s="10">
+      <c r="C14" s="2">
+        <v>840</v>
+      </c>
+      <c r="D14" s="2">
+        <v>100</v>
+      </c>
+      <c r="E14" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="8">
+      <c r="A15">
         <v>1912</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C15" s="10">
-        <v>840</v>
-      </c>
-      <c r="D15" s="10">
-        <v>100</v>
-      </c>
-      <c r="E15" s="10">
+      <c r="C15" s="2">
+        <v>840</v>
+      </c>
+      <c r="D15" s="2">
+        <v>100</v>
+      </c>
+      <c r="E15" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="8">
+      <c r="A16">
         <v>1913</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C16" s="10">
-        <v>840</v>
-      </c>
-      <c r="D16" s="10">
-        <v>100</v>
-      </c>
-      <c r="E16" s="10">
+      <c r="C16" s="2">
+        <v>840</v>
+      </c>
+      <c r="D16" s="2">
+        <v>100</v>
+      </c>
+      <c r="E16" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="8">
+      <c r="A17">
         <v>1914</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C17" s="10">
-        <v>840</v>
-      </c>
-      <c r="D17" s="10">
-        <v>100</v>
-      </c>
-      <c r="E17" s="10">
+      <c r="C17" s="2">
+        <v>840</v>
+      </c>
+      <c r="D17" s="2">
+        <v>100</v>
+      </c>
+      <c r="E17" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="8">
+      <c r="A18">
         <v>1915</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C18" s="10">
-        <v>840</v>
-      </c>
-      <c r="D18" s="10">
-        <v>100</v>
-      </c>
-      <c r="E18" s="10">
+      <c r="C18" s="2">
+        <v>840</v>
+      </c>
+      <c r="D18" s="2">
+        <v>100</v>
+      </c>
+      <c r="E18" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="8">
+      <c r="A19">
         <v>1916</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C19" s="10">
-        <v>840</v>
-      </c>
-      <c r="D19" s="10">
-        <v>100</v>
-      </c>
-      <c r="E19" s="10">
+      <c r="C19" s="2">
+        <v>840</v>
+      </c>
+      <c r="D19" s="2">
+        <v>100</v>
+      </c>
+      <c r="E19" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="8">
+      <c r="A20">
         <v>1917</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C20" s="10">
-        <v>840</v>
-      </c>
-      <c r="D20" s="10">
-        <v>100</v>
-      </c>
-      <c r="E20" s="10">
+      <c r="C20" s="2">
+        <v>840</v>
+      </c>
+      <c r="D20" s="2">
+        <v>100</v>
+      </c>
+      <c r="E20" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="8">
+      <c r="A21">
         <v>1918</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C21" s="10">
-        <v>840</v>
-      </c>
-      <c r="D21" s="10">
-        <v>100</v>
-      </c>
-      <c r="E21" s="10">
+      <c r="C21" s="2">
+        <v>840</v>
+      </c>
+      <c r="D21" s="2">
+        <v>100</v>
+      </c>
+      <c r="E21" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="8">
+      <c r="A22">
         <v>1919</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C22" s="10">
-        <v>840</v>
-      </c>
-      <c r="D22" s="10">
-        <v>100</v>
-      </c>
-      <c r="E22" s="10">
+      <c r="C22" s="2">
+        <v>840</v>
+      </c>
+      <c r="D22" s="2">
+        <v>100</v>
+      </c>
+      <c r="E22" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="8">
+      <c r="A23">
         <v>1920</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C23" s="10">
-        <v>840</v>
-      </c>
-      <c r="D23" s="10">
-        <v>100</v>
-      </c>
-      <c r="E23" s="10">
+      <c r="C23" s="2">
+        <v>840</v>
+      </c>
+      <c r="D23" s="2">
+        <v>100</v>
+      </c>
+      <c r="E23" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="8">
+      <c r="A24">
         <v>1921</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C24" s="10">
-        <v>840</v>
-      </c>
-      <c r="D24" s="10">
-        <v>100</v>
-      </c>
-      <c r="E24" s="10">
+      <c r="C24" s="2">
+        <v>840</v>
+      </c>
+      <c r="D24" s="2">
+        <v>100</v>
+      </c>
+      <c r="E24" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="8">
+      <c r="A25">
         <v>1922</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C25" s="10">
-        <v>840</v>
-      </c>
-      <c r="D25" s="10">
-        <v>100</v>
-      </c>
-      <c r="E25" s="10">
+      <c r="C25" s="2">
+        <v>840</v>
+      </c>
+      <c r="D25" s="2">
+        <v>100</v>
+      </c>
+      <c r="E25" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="8">
+      <c r="A26">
         <v>1923</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C26" s="10">
-        <v>840</v>
-      </c>
-      <c r="D26" s="10">
-        <v>100</v>
-      </c>
-      <c r="E26" s="10">
+      <c r="C26" s="2">
+        <v>840</v>
+      </c>
+      <c r="D26" s="2">
+        <v>100</v>
+      </c>
+      <c r="E26" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="8">
+      <c r="A27">
         <v>1924</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C27" s="10">
-        <v>840</v>
-      </c>
-      <c r="D27" s="10">
-        <v>100</v>
-      </c>
-      <c r="E27" s="10">
+      <c r="C27" s="2">
+        <v>840</v>
+      </c>
+      <c r="D27" s="2">
+        <v>100</v>
+      </c>
+      <c r="E27" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="8">
+      <c r="A28">
         <v>1925</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C28" s="10">
-        <v>840</v>
-      </c>
-      <c r="D28" s="10">
-        <v>100</v>
-      </c>
-      <c r="E28" s="10">
+      <c r="C28" s="2">
+        <v>840</v>
+      </c>
+      <c r="D28" s="2">
+        <v>100</v>
+      </c>
+      <c r="E28" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="8">
+      <c r="A29">
         <v>1926</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C29" s="10">
-        <v>840</v>
-      </c>
-      <c r="D29" s="10">
-        <v>100</v>
-      </c>
-      <c r="E29" s="10">
+      <c r="C29" s="2">
+        <v>840</v>
+      </c>
+      <c r="D29" s="2">
+        <v>100</v>
+      </c>
+      <c r="E29" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="8">
+      <c r="A30">
         <v>1927</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C30" s="10">
-        <v>840</v>
-      </c>
-      <c r="D30" s="10">
-        <v>100</v>
-      </c>
-      <c r="E30" s="10">
+      <c r="C30" s="2">
+        <v>840</v>
+      </c>
+      <c r="D30" s="2">
+        <v>100</v>
+      </c>
+      <c r="E30" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="8">
+      <c r="A31">
         <v>1928</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C31" s="10">
-        <v>840</v>
-      </c>
-      <c r="D31" s="10">
-        <v>100</v>
-      </c>
-      <c r="E31" s="10">
+      <c r="C31" s="2">
+        <v>840</v>
+      </c>
+      <c r="D31" s="2">
+        <v>100</v>
+      </c>
+      <c r="E31" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="8">
+      <c r="A32">
         <v>1929</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C32" s="10">
-        <v>840</v>
-      </c>
-      <c r="D32" s="10">
-        <v>100</v>
-      </c>
-      <c r="E32" s="10">
+      <c r="C32" s="2">
+        <v>840</v>
+      </c>
+      <c r="D32" s="2">
+        <v>100</v>
+      </c>
+      <c r="E32" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="8">
+      <c r="A33">
         <v>1930</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C33" s="10">
-        <v>840</v>
-      </c>
-      <c r="D33" s="10">
-        <v>100</v>
-      </c>
-      <c r="E33" s="10">
+      <c r="C33" s="2">
+        <v>840</v>
+      </c>
+      <c r="D33" s="2">
+        <v>100</v>
+      </c>
+      <c r="E33" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="8">
+      <c r="A34">
         <v>1931</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C34" s="10">
-        <v>840</v>
-      </c>
-      <c r="D34" s="10">
-        <v>100</v>
-      </c>
-      <c r="E34" s="10">
+      <c r="C34" s="2">
+        <v>840</v>
+      </c>
+      <c r="D34" s="2">
+        <v>100</v>
+      </c>
+      <c r="E34" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="8">
+      <c r="A35">
         <v>1932</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C35" s="10">
-        <v>840</v>
-      </c>
-      <c r="D35" s="10">
-        <v>100</v>
-      </c>
-      <c r="E35" s="10">
+      <c r="C35" s="2">
+        <v>840</v>
+      </c>
+      <c r="D35" s="2">
+        <v>100</v>
+      </c>
+      <c r="E35" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="8">
+      <c r="A36">
         <v>1933</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C36" s="10">
-        <v>840</v>
-      </c>
-      <c r="D36" s="10">
-        <v>100</v>
-      </c>
-      <c r="E36" s="10">
+      <c r="C36" s="2">
+        <v>840</v>
+      </c>
+      <c r="D36" s="2">
+        <v>100</v>
+      </c>
+      <c r="E36" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="8">
+      <c r="A37">
         <v>1934</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C37" s="10">
-        <v>840</v>
-      </c>
-      <c r="D37" s="10">
-        <v>100</v>
-      </c>
-      <c r="E37" s="10">
+      <c r="C37" s="2">
+        <v>840</v>
+      </c>
+      <c r="D37" s="2">
+        <v>100</v>
+      </c>
+      <c r="E37" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="8">
+      <c r="A38">
         <v>1935</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C38" s="10">
-        <v>840</v>
-      </c>
-      <c r="D38" s="10">
-        <v>100</v>
-      </c>
-      <c r="E38" s="10">
+      <c r="C38" s="2">
+        <v>840</v>
+      </c>
+      <c r="D38" s="2">
+        <v>100</v>
+      </c>
+      <c r="E38" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="8">
+      <c r="A39">
         <v>1936</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C39" s="10">
-        <v>840</v>
-      </c>
-      <c r="D39" s="10">
-        <v>100</v>
-      </c>
-      <c r="E39" s="10">
+      <c r="C39" s="2">
+        <v>840</v>
+      </c>
+      <c r="D39" s="2">
+        <v>100</v>
+      </c>
+      <c r="E39" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="8">
+      <c r="A40">
         <v>1937</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C40" s="10">
-        <v>840</v>
-      </c>
-      <c r="D40" s="10">
-        <v>100</v>
-      </c>
-      <c r="E40" s="10">
+      <c r="C40" s="2">
+        <v>840</v>
+      </c>
+      <c r="D40" s="2">
+        <v>100</v>
+      </c>
+      <c r="E40" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="8">
+      <c r="A41">
         <v>1938</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C41" s="10">
-        <v>840</v>
-      </c>
-      <c r="D41" s="10">
-        <v>100</v>
-      </c>
-      <c r="E41" s="10">
+      <c r="C41" s="2">
+        <v>840</v>
+      </c>
+      <c r="D41" s="2">
+        <v>100</v>
+      </c>
+      <c r="E41" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="8">
+      <c r="A42">
         <v>1939</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C42" s="10">
-        <v>840</v>
-      </c>
-      <c r="D42" s="10">
-        <v>100</v>
-      </c>
-      <c r="E42" s="10">
+      <c r="C42" s="2">
+        <v>840</v>
+      </c>
+      <c r="D42" s="2">
+        <v>100</v>
+      </c>
+      <c r="E42" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="8">
+      <c r="A43">
         <v>1940</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C43" s="10">
-        <v>840</v>
-      </c>
-      <c r="D43" s="10">
-        <v>100</v>
-      </c>
-      <c r="E43" s="10">
+      <c r="C43" s="2">
+        <v>840</v>
+      </c>
+      <c r="D43" s="2">
+        <v>100</v>
+      </c>
+      <c r="E43" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="8">
+      <c r="A44">
         <v>1941</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C44" s="10">
-        <v>840</v>
-      </c>
-      <c r="D44" s="10">
-        <v>100</v>
-      </c>
-      <c r="E44" s="10">
+      <c r="C44" s="2">
+        <v>840</v>
+      </c>
+      <c r="D44" s="2">
+        <v>100</v>
+      </c>
+      <c r="E44" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="8">
+      <c r="A45">
         <v>1942</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C45" s="10">
-        <v>840</v>
-      </c>
-      <c r="D45" s="10">
-        <v>100</v>
-      </c>
-      <c r="E45" s="10">
+      <c r="C45" s="2">
+        <v>840</v>
+      </c>
+      <c r="D45" s="2">
+        <v>100</v>
+      </c>
+      <c r="E45" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="8">
+      <c r="A46">
         <v>1943</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C46" s="10">
-        <v>840</v>
-      </c>
-      <c r="D46" s="10">
-        <v>100</v>
-      </c>
-      <c r="E46" s="10">
+      <c r="C46" s="2">
+        <v>840</v>
+      </c>
+      <c r="D46" s="2">
+        <v>100</v>
+      </c>
+      <c r="E46" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="8">
+      <c r="A47">
         <v>1944</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C47" s="10">
-        <v>840</v>
-      </c>
-      <c r="D47" s="10">
-        <v>100</v>
-      </c>
-      <c r="E47" s="10">
+      <c r="C47" s="2">
+        <v>840</v>
+      </c>
+      <c r="D47" s="2">
+        <v>100</v>
+      </c>
+      <c r="E47" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="8">
+      <c r="A48">
         <v>1945</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C48" s="10">
-        <v>840</v>
-      </c>
-      <c r="D48" s="10">
-        <v>100</v>
-      </c>
-      <c r="E48" s="10">
+      <c r="C48" s="2">
+        <v>840</v>
+      </c>
+      <c r="D48" s="2">
+        <v>100</v>
+      </c>
+      <c r="E48" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="8">
+      <c r="A49">
         <v>1946</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C49" s="10">
-        <v>840</v>
-      </c>
-      <c r="D49" s="10">
-        <v>100</v>
-      </c>
-      <c r="E49" s="10">
+      <c r="C49" s="2">
+        <v>840</v>
+      </c>
+      <c r="D49" s="2">
+        <v>100</v>
+      </c>
+      <c r="E49" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="8">
+      <c r="A50">
         <v>1947</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C50" s="10">
-        <v>840</v>
-      </c>
-      <c r="D50" s="10">
-        <v>100</v>
-      </c>
-      <c r="E50" s="10">
+      <c r="C50" s="2">
+        <v>840</v>
+      </c>
+      <c r="D50" s="2">
+        <v>100</v>
+      </c>
+      <c r="E50" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="8">
+      <c r="A51">
         <v>1948</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C51" s="10">
-        <v>840</v>
-      </c>
-      <c r="D51" s="10">
-        <v>100</v>
-      </c>
-      <c r="E51" s="10">
+      <c r="C51" s="2">
+        <v>840</v>
+      </c>
+      <c r="D51" s="2">
+        <v>100</v>
+      </c>
+      <c r="E51" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="8">
+      <c r="A52">
         <v>1949</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C52" s="10">
-        <v>840</v>
-      </c>
-      <c r="D52" s="10">
-        <v>100</v>
-      </c>
-      <c r="E52" s="10">
+      <c r="C52" s="2">
+        <v>840</v>
+      </c>
+      <c r="D52" s="2">
+        <v>100</v>
+      </c>
+      <c r="E52" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="8">
+      <c r="A53">
         <v>1950</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C53" s="10">
-        <v>840</v>
-      </c>
-      <c r="D53" s="10">
-        <v>100</v>
-      </c>
-      <c r="E53" s="10">
+      <c r="C53" s="2">
+        <v>840</v>
+      </c>
+      <c r="D53" s="2">
+        <v>100</v>
+      </c>
+      <c r="E53" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="8">
+      <c r="A54">
         <v>1951</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C54" s="10">
-        <v>840</v>
-      </c>
-      <c r="D54" s="10">
-        <v>100</v>
-      </c>
-      <c r="E54" s="10">
+      <c r="C54" s="2">
+        <v>840</v>
+      </c>
+      <c r="D54" s="2">
+        <v>100</v>
+      </c>
+      <c r="E54" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="8">
+      <c r="A55">
         <v>1952</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C55" s="10">
-        <v>840</v>
-      </c>
-      <c r="D55" s="10">
-        <v>100</v>
-      </c>
-      <c r="E55" s="10">
+      <c r="C55" s="2">
+        <v>840</v>
+      </c>
+      <c r="D55" s="2">
+        <v>100</v>
+      </c>
+      <c r="E55" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="8">
+      <c r="A56">
         <v>1953</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B56" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C56" s="10">
-        <v>840</v>
-      </c>
-      <c r="D56" s="10">
-        <v>100</v>
-      </c>
-      <c r="E56" s="10">
+      <c r="C56" s="2">
+        <v>840</v>
+      </c>
+      <c r="D56" s="2">
+        <v>100</v>
+      </c>
+      <c r="E56" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="8">
+      <c r="A57">
         <v>1954</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C57" s="10">
-        <v>840</v>
-      </c>
-      <c r="D57" s="10">
-        <v>100</v>
-      </c>
-      <c r="E57" s="10">
+      <c r="C57" s="2">
+        <v>840</v>
+      </c>
+      <c r="D57" s="2">
+        <v>100</v>
+      </c>
+      <c r="E57" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="8">
+      <c r="A58">
         <v>1955</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B58" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C58" s="10">
-        <v>840</v>
-      </c>
-      <c r="D58" s="10">
-        <v>100</v>
-      </c>
-      <c r="E58" s="10">
+      <c r="C58" s="2">
+        <v>840</v>
+      </c>
+      <c r="D58" s="2">
+        <v>100</v>
+      </c>
+      <c r="E58" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="8">
+      <c r="A59">
         <v>1956</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C59" s="10">
-        <v>840</v>
-      </c>
-      <c r="D59" s="10">
-        <v>100</v>
-      </c>
-      <c r="E59" s="10">
+      <c r="C59" s="2">
+        <v>840</v>
+      </c>
+      <c r="D59" s="2">
+        <v>100</v>
+      </c>
+      <c r="E59" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="8">
+      <c r="A60">
         <v>1957</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C60" s="10">
-        <v>840</v>
-      </c>
-      <c r="D60" s="10">
-        <v>100</v>
-      </c>
-      <c r="E60" s="10">
+      <c r="C60" s="2">
+        <v>840</v>
+      </c>
+      <c r="D60" s="2">
+        <v>100</v>
+      </c>
+      <c r="E60" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="8">
+      <c r="A61">
         <v>1958</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C61" s="10">
-        <v>840</v>
-      </c>
-      <c r="D61" s="10">
-        <v>100</v>
-      </c>
-      <c r="E61" s="10">
+      <c r="C61" s="2">
+        <v>840</v>
+      </c>
+      <c r="D61" s="2">
+        <v>100</v>
+      </c>
+      <c r="E61" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="8">
+      <c r="A62">
         <v>1959</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B62" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C62" s="10">
-        <v>840</v>
-      </c>
-      <c r="D62" s="10">
-        <v>100</v>
-      </c>
-      <c r="E62" s="10">
+      <c r="C62" s="2">
+        <v>840</v>
+      </c>
+      <c r="D62" s="2">
+        <v>100</v>
+      </c>
+      <c r="E62" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="8">
+      <c r="A63">
         <v>1960</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C63" s="10">
-        <v>840</v>
-      </c>
-      <c r="D63" s="10">
-        <v>100</v>
-      </c>
-      <c r="E63" s="10">
+      <c r="C63" s="2">
+        <v>840</v>
+      </c>
+      <c r="D63" s="2">
+        <v>100</v>
+      </c>
+      <c r="E63" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="8">
+      <c r="A64">
         <v>1961</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C64" s="10">
-        <v>840</v>
-      </c>
-      <c r="D64" s="10">
-        <v>100</v>
-      </c>
-      <c r="E64" s="10">
+      <c r="C64" s="2">
+        <v>840</v>
+      </c>
+      <c r="D64" s="2">
+        <v>100</v>
+      </c>
+      <c r="E64" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="8">
+      <c r="A65">
         <v>1962</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C65" s="10">
-        <v>840</v>
-      </c>
-      <c r="D65" s="10">
-        <v>100</v>
-      </c>
-      <c r="E65" s="10">
+      <c r="C65" s="2">
+        <v>840</v>
+      </c>
+      <c r="D65" s="2">
+        <v>100</v>
+      </c>
+      <c r="E65" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="8">
+      <c r="A66">
         <v>1963</v>
       </c>
-      <c r="B66" s="10">
+      <c r="B66" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C66" s="10">
-        <v>840</v>
-      </c>
-      <c r="D66" s="10">
-        <v>100</v>
-      </c>
-      <c r="E66" s="10">
+      <c r="C66" s="2">
+        <v>840</v>
+      </c>
+      <c r="D66" s="2">
+        <v>100</v>
+      </c>
+      <c r="E66" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="8">
+      <c r="A67">
         <v>1964</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B67" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C67" s="10">
-        <v>840</v>
-      </c>
-      <c r="D67" s="10">
-        <v>100</v>
-      </c>
-      <c r="E67" s="10">
+      <c r="C67" s="2">
+        <v>840</v>
+      </c>
+      <c r="D67" s="2">
+        <v>100</v>
+      </c>
+      <c r="E67" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="8">
+      <c r="A68">
         <v>1965</v>
       </c>
-      <c r="B68" s="10">
+      <c r="B68" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C68" s="10">
-        <v>840</v>
-      </c>
-      <c r="D68" s="10">
-        <v>100</v>
-      </c>
-      <c r="E68" s="10">
+      <c r="C68" s="2">
+        <v>840</v>
+      </c>
+      <c r="D68" s="2">
+        <v>100</v>
+      </c>
+      <c r="E68" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="8">
+      <c r="A69">
         <v>1966</v>
       </c>
-      <c r="B69" s="10">
+      <c r="B69" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C69" s="10">
-        <v>840</v>
-      </c>
-      <c r="D69" s="10">
-        <v>100</v>
-      </c>
-      <c r="E69" s="10">
+      <c r="C69" s="2">
+        <v>840</v>
+      </c>
+      <c r="D69" s="2">
+        <v>100</v>
+      </c>
+      <c r="E69" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="8">
+      <c r="A70">
         <v>1967</v>
       </c>
-      <c r="B70" s="10">
+      <c r="B70" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C70" s="10">
-        <v>840</v>
-      </c>
-      <c r="D70" s="10">
-        <v>100</v>
-      </c>
-      <c r="E70" s="10">
+      <c r="C70" s="2">
+        <v>840</v>
+      </c>
+      <c r="D70" s="2">
+        <v>100</v>
+      </c>
+      <c r="E70" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="8">
+      <c r="A71">
         <v>1968</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B71" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C71" s="10">
-        <v>840</v>
-      </c>
-      <c r="D71" s="10">
-        <v>100</v>
-      </c>
-      <c r="E71" s="10">
+      <c r="C71" s="2">
+        <v>840</v>
+      </c>
+      <c r="D71" s="2">
+        <v>100</v>
+      </c>
+      <c r="E71" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="8">
+      <c r="A72">
         <v>1969</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B72" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C72" s="10">
-        <v>840</v>
-      </c>
-      <c r="D72" s="10">
-        <v>100</v>
-      </c>
-      <c r="E72" s="10">
+      <c r="C72" s="2">
+        <v>840</v>
+      </c>
+      <c r="D72" s="2">
+        <v>100</v>
+      </c>
+      <c r="E72" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="8">
+      <c r="A73">
         <v>1970</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B73" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C73" s="10">
-        <v>840</v>
-      </c>
-      <c r="D73" s="10">
-        <v>100</v>
-      </c>
-      <c r="E73" s="10">
+      <c r="C73" s="2">
+        <v>840</v>
+      </c>
+      <c r="D73" s="2">
+        <v>100</v>
+      </c>
+      <c r="E73" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="8">
+      <c r="A74">
         <v>1971</v>
       </c>
-      <c r="B74" s="10">
+      <c r="B74" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C74" s="10">
-        <v>840</v>
-      </c>
-      <c r="D74" s="10">
-        <v>100</v>
-      </c>
-      <c r="E74" s="10">
+      <c r="C74" s="2">
+        <v>840</v>
+      </c>
+      <c r="D74" s="2">
+        <v>100</v>
+      </c>
+      <c r="E74" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="8">
+      <c r="A75">
         <v>1972</v>
       </c>
-      <c r="B75" s="10">
+      <c r="B75" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C75" s="10">
-        <v>840</v>
-      </c>
-      <c r="D75" s="10">
-        <v>100</v>
-      </c>
-      <c r="E75" s="10">
+      <c r="C75" s="2">
+        <v>840</v>
+      </c>
+      <c r="D75" s="2">
+        <v>100</v>
+      </c>
+      <c r="E75" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="8">
+      <c r="A76">
         <v>1973</v>
       </c>
-      <c r="B76" s="10">
+      <c r="B76" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C76" s="10">
-        <v>840</v>
-      </c>
-      <c r="D76" s="10">
-        <v>100</v>
-      </c>
-      <c r="E76" s="10">
+      <c r="C76" s="2">
+        <v>840</v>
+      </c>
+      <c r="D76" s="2">
+        <v>100</v>
+      </c>
+      <c r="E76" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="8">
+      <c r="A77">
         <v>1974</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B77" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C77" s="10">
-        <v>840</v>
-      </c>
-      <c r="D77" s="10">
-        <v>100</v>
-      </c>
-      <c r="E77" s="10">
+      <c r="C77" s="2">
+        <v>840</v>
+      </c>
+      <c r="D77" s="2">
+        <v>100</v>
+      </c>
+      <c r="E77" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="8">
+      <c r="A78">
         <v>1975</v>
       </c>
-      <c r="B78" s="10">
+      <c r="B78" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C78" s="10">
-        <v>840</v>
-      </c>
-      <c r="D78" s="10">
-        <v>100</v>
-      </c>
-      <c r="E78" s="10">
+      <c r="C78" s="2">
+        <v>840</v>
+      </c>
+      <c r="D78" s="2">
+        <v>100</v>
+      </c>
+      <c r="E78" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="8">
+      <c r="A79">
         <v>1976</v>
       </c>
-      <c r="B79" s="10">
+      <c r="B79" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C79" s="10">
-        <v>840</v>
-      </c>
-      <c r="D79" s="10">
-        <v>100</v>
-      </c>
-      <c r="E79" s="10">
+      <c r="C79" s="2">
+        <v>840</v>
+      </c>
+      <c r="D79" s="2">
+        <v>100</v>
+      </c>
+      <c r="E79" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="8">
+      <c r="A80">
         <v>1977</v>
       </c>
-      <c r="B80" s="10">
+      <c r="B80" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C80" s="10">
-        <v>840</v>
-      </c>
-      <c r="D80" s="10">
-        <v>100</v>
-      </c>
-      <c r="E80" s="10">
+      <c r="C80" s="2">
+        <v>840</v>
+      </c>
+      <c r="D80" s="2">
+        <v>100</v>
+      </c>
+      <c r="E80" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="8">
+      <c r="A81">
         <v>1978</v>
       </c>
-      <c r="B81" s="10">
+      <c r="B81" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C81" s="10">
-        <v>840</v>
-      </c>
-      <c r="D81" s="10">
-        <v>100</v>
-      </c>
-      <c r="E81" s="10">
+      <c r="C81" s="2">
+        <v>840</v>
+      </c>
+      <c r="D81" s="2">
+        <v>100</v>
+      </c>
+      <c r="E81" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="8">
+      <c r="A82">
         <v>1979</v>
       </c>
-      <c r="B82" s="10">
+      <c r="B82" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C82" s="10">
-        <v>840</v>
-      </c>
-      <c r="D82" s="10">
-        <v>100</v>
-      </c>
-      <c r="E82" s="10">
+      <c r="C82" s="2">
+        <v>840</v>
+      </c>
+      <c r="D82" s="2">
+        <v>100</v>
+      </c>
+      <c r="E82" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="8">
+      <c r="A83">
         <v>1980</v>
       </c>
-      <c r="B83" s="10">
+      <c r="B83" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C83" s="10">
-        <v>840</v>
-      </c>
-      <c r="D83" s="10">
-        <v>100</v>
-      </c>
-      <c r="E83" s="10">
+      <c r="C83" s="2">
+        <v>840</v>
+      </c>
+      <c r="D83" s="2">
+        <v>100</v>
+      </c>
+      <c r="E83" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="8">
+      <c r="A84">
         <v>1981</v>
       </c>
-      <c r="B84" s="10">
+      <c r="B84" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C84" s="10">
-        <v>840</v>
-      </c>
-      <c r="D84" s="10">
-        <v>100</v>
-      </c>
-      <c r="E84" s="10">
+      <c r="C84" s="2">
+        <v>840</v>
+      </c>
+      <c r="D84" s="2">
+        <v>100</v>
+      </c>
+      <c r="E84" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="8">
+      <c r="A85">
         <v>1982</v>
       </c>
-      <c r="B85" s="10">
+      <c r="B85" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C85" s="10">
-        <v>840</v>
-      </c>
-      <c r="D85" s="10">
-        <v>100</v>
-      </c>
-      <c r="E85" s="10">
+      <c r="C85" s="2">
+        <v>840</v>
+      </c>
+      <c r="D85" s="2">
+        <v>100</v>
+      </c>
+      <c r="E85" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="8">
+      <c r="A86">
         <v>1983</v>
       </c>
-      <c r="B86" s="10">
+      <c r="B86" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C86" s="10">
-        <v>840</v>
-      </c>
-      <c r="D86" s="10">
-        <v>100</v>
-      </c>
-      <c r="E86" s="10">
+      <c r="C86" s="2">
+        <v>840</v>
+      </c>
+      <c r="D86" s="2">
+        <v>100</v>
+      </c>
+      <c r="E86" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="8">
+      <c r="A87">
         <v>1984</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B87" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C87" s="10">
-        <v>840</v>
-      </c>
-      <c r="D87" s="10">
-        <v>100</v>
-      </c>
-      <c r="E87" s="10">
+      <c r="C87" s="2">
+        <v>840</v>
+      </c>
+      <c r="D87" s="2">
+        <v>100</v>
+      </c>
+      <c r="E87" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="8">
+      <c r="A88">
         <v>1985</v>
       </c>
-      <c r="B88" s="10">
+      <c r="B88" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C88" s="10">
-        <v>840</v>
-      </c>
-      <c r="D88" s="10">
-        <v>100</v>
-      </c>
-      <c r="E88" s="10">
+      <c r="C88" s="2">
+        <v>840</v>
+      </c>
+      <c r="D88" s="2">
+        <v>100</v>
+      </c>
+      <c r="E88" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="8">
+      <c r="A89">
         <v>1986</v>
       </c>
-      <c r="B89" s="10">
+      <c r="B89" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C89" s="10">
-        <v>840</v>
-      </c>
-      <c r="D89" s="10">
-        <v>100</v>
-      </c>
-      <c r="E89" s="10">
+      <c r="C89" s="2">
+        <v>840</v>
+      </c>
+      <c r="D89" s="2">
+        <v>100</v>
+      </c>
+      <c r="E89" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="8">
+      <c r="A90">
         <v>1987</v>
       </c>
-      <c r="B90" s="10">
+      <c r="B90" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C90" s="10">
-        <v>840</v>
-      </c>
-      <c r="D90" s="10">
-        <v>100</v>
-      </c>
-      <c r="E90" s="10">
+      <c r="C90" s="2">
+        <v>840</v>
+      </c>
+      <c r="D90" s="2">
+        <v>100</v>
+      </c>
+      <c r="E90" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="8">
+      <c r="A91">
         <v>1988</v>
       </c>
-      <c r="B91" s="10">
+      <c r="B91" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C91" s="10">
-        <v>840</v>
-      </c>
-      <c r="D91" s="10">
-        <v>100</v>
-      </c>
-      <c r="E91" s="10">
+      <c r="C91" s="2">
+        <v>840</v>
+      </c>
+      <c r="D91" s="2">
+        <v>100</v>
+      </c>
+      <c r="E91" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="8">
+      <c r="A92">
         <v>1989</v>
       </c>
-      <c r="B92" s="10">
+      <c r="B92" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C92" s="10">
-        <v>840</v>
-      </c>
-      <c r="D92" s="10">
-        <v>100</v>
-      </c>
-      <c r="E92" s="10">
+      <c r="C92" s="2">
+        <v>840</v>
+      </c>
+      <c r="D92" s="2">
+        <v>100</v>
+      </c>
+      <c r="E92" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="8">
+      <c r="A93">
         <v>1990</v>
       </c>
-      <c r="B93" s="10">
+      <c r="B93" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C93" s="10">
-        <v>840</v>
-      </c>
-      <c r="D93" s="10">
-        <v>100</v>
-      </c>
-      <c r="E93" s="10">
+      <c r="C93" s="2">
+        <v>840</v>
+      </c>
+      <c r="D93" s="2">
+        <v>100</v>
+      </c>
+      <c r="E93" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="8">
+      <c r="A94">
         <v>1991</v>
       </c>
-      <c r="B94" s="10">
+      <c r="B94" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C94" s="10">
-        <v>840</v>
-      </c>
-      <c r="D94" s="10">
-        <v>100</v>
-      </c>
-      <c r="E94" s="10">
+      <c r="C94" s="2">
+        <v>840</v>
+      </c>
+      <c r="D94" s="2">
+        <v>100</v>
+      </c>
+      <c r="E94" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="8">
+      <c r="A95">
         <v>1992</v>
       </c>
-      <c r="B95" s="10">
+      <c r="B95" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C95" s="10">
-        <v>840</v>
-      </c>
-      <c r="D95" s="10">
-        <v>100</v>
-      </c>
-      <c r="E95" s="10">
+      <c r="C95" s="2">
+        <v>840</v>
+      </c>
+      <c r="D95" s="2">
+        <v>100</v>
+      </c>
+      <c r="E95" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="8">
+      <c r="A96">
         <v>1993</v>
       </c>
-      <c r="B96" s="10">
+      <c r="B96" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C96" s="10">
-        <v>840</v>
-      </c>
-      <c r="D96" s="10">
-        <v>100</v>
-      </c>
-      <c r="E96" s="10">
+      <c r="C96" s="2">
+        <v>840</v>
+      </c>
+      <c r="D96" s="2">
+        <v>100</v>
+      </c>
+      <c r="E96" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="8">
+      <c r="A97">
         <v>1994</v>
       </c>
-      <c r="B97" s="10">
+      <c r="B97" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C97" s="10">
-        <v>840</v>
-      </c>
-      <c r="D97" s="10">
-        <v>100</v>
-      </c>
-      <c r="E97" s="10">
+      <c r="C97" s="2">
+        <v>840</v>
+      </c>
+      <c r="D97" s="2">
+        <v>100</v>
+      </c>
+      <c r="E97" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="8">
+      <c r="A98">
         <v>1995</v>
       </c>
-      <c r="B98" s="10">
+      <c r="B98" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C98" s="10">
-        <v>840</v>
-      </c>
-      <c r="D98" s="10">
-        <v>100</v>
-      </c>
-      <c r="E98" s="10">
+      <c r="C98" s="2">
+        <v>840</v>
+      </c>
+      <c r="D98" s="2">
+        <v>100</v>
+      </c>
+      <c r="E98" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="8">
+      <c r="A99">
         <v>1996</v>
       </c>
-      <c r="B99" s="10">
+      <c r="B99" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C99" s="10">
-        <v>840</v>
-      </c>
-      <c r="D99" s="10">
-        <v>100</v>
-      </c>
-      <c r="E99" s="10">
+      <c r="C99" s="2">
+        <v>840</v>
+      </c>
+      <c r="D99" s="2">
+        <v>100</v>
+      </c>
+      <c r="E99" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="8">
+      <c r="A100">
         <v>1997</v>
       </c>
-      <c r="B100" s="10">
+      <c r="B100" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C100" s="10">
-        <v>840</v>
-      </c>
-      <c r="D100" s="10">
-        <v>100</v>
-      </c>
-      <c r="E100" s="10">
+      <c r="C100" s="2">
+        <v>840</v>
+      </c>
+      <c r="D100" s="2">
+        <v>100</v>
+      </c>
+      <c r="E100" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="8">
+      <c r="A101">
         <v>1998</v>
       </c>
-      <c r="B101" s="10">
+      <c r="B101" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C101" s="10">
-        <v>840</v>
-      </c>
-      <c r="D101" s="10">
-        <v>100</v>
-      </c>
-      <c r="E101" s="10">
+      <c r="C101" s="2">
+        <v>840</v>
+      </c>
+      <c r="D101" s="2">
+        <v>100</v>
+      </c>
+      <c r="E101" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="8">
+      <c r="A102">
         <v>1999</v>
       </c>
-      <c r="B102" s="10">
+      <c r="B102" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C102" s="10">
-        <v>840</v>
-      </c>
-      <c r="D102" s="10">
-        <v>100</v>
-      </c>
-      <c r="E102" s="10">
+      <c r="C102" s="2">
+        <v>840</v>
+      </c>
+      <c r="D102" s="2">
+        <v>100</v>
+      </c>
+      <c r="E102" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="8">
+      <c r="A103">
         <v>2000</v>
       </c>
-      <c r="B103" s="10">
+      <c r="B103" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C103" s="10">
-        <v>840</v>
-      </c>
-      <c r="D103" s="10">
-        <v>100</v>
-      </c>
-      <c r="E103" s="10">
+      <c r="C103" s="2">
+        <v>840</v>
+      </c>
+      <c r="D103" s="2">
+        <v>100</v>
+      </c>
+      <c r="E103" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="8">
+      <c r="A104">
         <v>2001</v>
       </c>
-      <c r="B104" s="10">
+      <c r="B104" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C104" s="10">
-        <v>840</v>
-      </c>
-      <c r="D104" s="10">
-        <v>100</v>
-      </c>
-      <c r="E104" s="10">
+      <c r="C104" s="2">
+        <v>840</v>
+      </c>
+      <c r="D104" s="2">
+        <v>100</v>
+      </c>
+      <c r="E104" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="8">
+      <c r="A105">
         <v>2002</v>
       </c>
-      <c r="B105" s="10">
+      <c r="B105" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C105" s="10">
-        <v>840</v>
-      </c>
-      <c r="D105" s="10">
-        <v>100</v>
-      </c>
-      <c r="E105" s="10">
+      <c r="C105" s="2">
+        <v>840</v>
+      </c>
+      <c r="D105" s="2">
+        <v>100</v>
+      </c>
+      <c r="E105" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="8">
+      <c r="A106">
         <v>2003</v>
       </c>
-      <c r="B106" s="10">
+      <c r="B106" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C106" s="10">
-        <v>840</v>
-      </c>
-      <c r="D106" s="10">
-        <v>100</v>
-      </c>
-      <c r="E106" s="10">
+      <c r="C106" s="2">
+        <v>840</v>
+      </c>
+      <c r="D106" s="2">
+        <v>100</v>
+      </c>
+      <c r="E106" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="8">
+      <c r="A107">
         <v>2004</v>
       </c>
-      <c r="B107" s="10">
+      <c r="B107" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C107" s="10">
-        <v>840</v>
-      </c>
-      <c r="D107" s="10">
-        <v>100</v>
-      </c>
-      <c r="E107" s="10">
+      <c r="C107" s="2">
+        <v>840</v>
+      </c>
+      <c r="D107" s="2">
+        <v>100</v>
+      </c>
+      <c r="E107" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="8">
+      <c r="A108">
         <v>2005</v>
       </c>
-      <c r="B108" s="10">
+      <c r="B108" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C108" s="10">
-        <v>840</v>
-      </c>
-      <c r="D108" s="10">
-        <v>100</v>
-      </c>
-      <c r="E108" s="10">
+      <c r="C108" s="2">
+        <v>840</v>
+      </c>
+      <c r="D108" s="2">
+        <v>100</v>
+      </c>
+      <c r="E108" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="8">
+      <c r="A109">
         <v>2006</v>
       </c>
-      <c r="B109" s="10">
+      <c r="B109" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C109" s="10">
-        <v>840</v>
-      </c>
-      <c r="D109" s="10">
-        <v>100</v>
-      </c>
-      <c r="E109" s="10">
+      <c r="C109" s="2">
+        <v>840</v>
+      </c>
+      <c r="D109" s="2">
+        <v>100</v>
+      </c>
+      <c r="E109" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="8">
+      <c r="A110">
         <v>2007</v>
       </c>
-      <c r="B110" s="10">
+      <c r="B110" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C110" s="10">
-        <v>840</v>
-      </c>
-      <c r="D110" s="10">
-        <v>100</v>
-      </c>
-      <c r="E110" s="10">
+      <c r="C110" s="2">
+        <v>840</v>
+      </c>
+      <c r="D110" s="2">
+        <v>100</v>
+      </c>
+      <c r="E110" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="8">
+      <c r="A111">
         <v>2008</v>
       </c>
-      <c r="B111" s="10">
+      <c r="B111" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C111" s="10">
-        <v>840</v>
-      </c>
-      <c r="D111" s="10">
-        <v>100</v>
-      </c>
-      <c r="E111" s="10">
+      <c r="C111" s="2">
+        <v>840</v>
+      </c>
+      <c r="D111" s="2">
+        <v>100</v>
+      </c>
+      <c r="E111" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="8">
+      <c r="A112">
         <v>2009</v>
       </c>
-      <c r="B112" s="10">
+      <c r="B112" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C112" s="10">
-        <v>840</v>
-      </c>
-      <c r="D112" s="10">
-        <v>100</v>
-      </c>
-      <c r="E112" s="10">
+      <c r="C112" s="2">
+        <v>840</v>
+      </c>
+      <c r="D112" s="2">
+        <v>100</v>
+      </c>
+      <c r="E112" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="8">
+      <c r="A113">
         <v>2010</v>
       </c>
-      <c r="B113" s="10">
+      <c r="B113" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C113" s="10">
-        <v>840</v>
-      </c>
-      <c r="D113" s="10">
-        <v>100</v>
-      </c>
-      <c r="E113" s="10">
+      <c r="C113" s="2">
+        <v>840</v>
+      </c>
+      <c r="D113" s="2">
+        <v>100</v>
+      </c>
+      <c r="E113" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="8">
+      <c r="A114">
         <v>2011</v>
       </c>
-      <c r="B114" s="10">
+      <c r="B114" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C114" s="10">
-        <v>840</v>
-      </c>
-      <c r="D114" s="10">
-        <v>100</v>
-      </c>
-      <c r="E114" s="10">
+      <c r="C114" s="2">
+        <v>840</v>
+      </c>
+      <c r="D114" s="2">
+        <v>100</v>
+      </c>
+      <c r="E114" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="8">
+      <c r="A115">
         <v>2012</v>
       </c>
-      <c r="B115" s="10">
+      <c r="B115" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C115" s="10">
-        <v>840</v>
-      </c>
-      <c r="D115" s="10">
-        <v>100</v>
-      </c>
-      <c r="E115" s="10">
+      <c r="C115" s="2">
+        <v>840</v>
+      </c>
+      <c r="D115" s="2">
+        <v>100</v>
+      </c>
+      <c r="E115" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="8">
+      <c r="A116">
         <v>2013</v>
       </c>
-      <c r="B116" s="10">
+      <c r="B116" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C116" s="10">
-        <v>840</v>
-      </c>
-      <c r="D116" s="10">
-        <v>100</v>
-      </c>
-      <c r="E116" s="10">
+      <c r="C116" s="2">
+        <v>840</v>
+      </c>
+      <c r="D116" s="2">
+        <v>100</v>
+      </c>
+      <c r="E116" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="8">
+      <c r="A117">
         <v>2014</v>
       </c>
-      <c r="B117" s="10">
+      <c r="B117" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C117" s="10">
-        <v>840</v>
-      </c>
-      <c r="D117" s="10">
-        <v>100</v>
-      </c>
-      <c r="E117" s="10">
+      <c r="C117" s="2">
+        <v>840</v>
+      </c>
+      <c r="D117" s="2">
+        <v>100</v>
+      </c>
+      <c r="E117" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="8">
+      <c r="A118">
         <v>2015</v>
       </c>
-      <c r="B118" s="10">
+      <c r="B118" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C118" s="10">
-        <v>840</v>
-      </c>
-      <c r="D118" s="10">
-        <v>100</v>
-      </c>
-      <c r="E118" s="10">
+      <c r="C118" s="2">
+        <v>840</v>
+      </c>
+      <c r="D118" s="2">
+        <v>100</v>
+      </c>
+      <c r="E118" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="8">
+      <c r="A119">
         <v>2016</v>
       </c>
-      <c r="B119" s="10">
+      <c r="B119" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C119" s="10">
-        <v>840</v>
-      </c>
-      <c r="D119" s="10">
-        <v>100</v>
-      </c>
-      <c r="E119" s="10">
+      <c r="C119" s="2">
+        <v>840</v>
+      </c>
+      <c r="D119" s="2">
+        <v>100</v>
+      </c>
+      <c r="E119" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="8">
+      <c r="A120">
         <v>2017</v>
       </c>
-      <c r="B120" s="10">
+      <c r="B120" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C120" s="10">
-        <v>840</v>
-      </c>
-      <c r="D120" s="10">
-        <v>100</v>
-      </c>
-      <c r="E120" s="10">
+      <c r="C120" s="2">
+        <v>840</v>
+      </c>
+      <c r="D120" s="2">
+        <v>100</v>
+      </c>
+      <c r="E120" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="8">
+      <c r="A121">
         <v>2018</v>
       </c>
-      <c r="B121" s="10">
+      <c r="B121" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C121" s="10">
-        <v>840</v>
-      </c>
-      <c r="D121" s="10">
-        <v>100</v>
-      </c>
-      <c r="E121" s="10">
+      <c r="C121" s="2">
+        <v>840</v>
+      </c>
+      <c r="D121" s="2">
+        <v>100</v>
+      </c>
+      <c r="E121" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="8">
+      <c r="A122">
         <v>2019</v>
       </c>
-      <c r="B122" s="10">
+      <c r="B122" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C122" s="10">
-        <v>840</v>
-      </c>
-      <c r="D122" s="10">
-        <v>100</v>
-      </c>
-      <c r="E122" s="10">
+      <c r="C122" s="2">
+        <v>840</v>
+      </c>
+      <c r="D122" s="2">
+        <v>100</v>
+      </c>
+      <c r="E122" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="8">
+      <c r="A123">
         <v>2020</v>
       </c>
-      <c r="B123" s="10">
+      <c r="B123" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C123" s="10">
-        <v>840</v>
-      </c>
-      <c r="D123" s="10">
-        <v>100</v>
-      </c>
-      <c r="E123" s="10">
+      <c r="C123" s="2">
+        <v>840</v>
+      </c>
+      <c r="D123" s="2">
+        <v>100</v>
+      </c>
+      <c r="E123" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="8">
+      <c r="A124">
         <v>2021</v>
       </c>
-      <c r="B124" s="10">
+      <c r="B124" s="2">
         <v>1995.5</v>
       </c>
-      <c r="C124" s="10">
-        <v>840</v>
-      </c>
-      <c r="D124" s="10">
-        <v>100</v>
-      </c>
-      <c r="E124" s="10">
+      <c r="C124" s="2">
+        <v>840</v>
+      </c>
+      <c r="D124" s="2">
+        <v>100</v>
+      </c>
+      <c r="E124" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="8">
+      <c r="A125">
         <v>2022</v>
       </c>
-      <c r="B125" s="10">
+      <c r="B125" s="2">
         <v>1984.6310344827587</v>
       </c>
-      <c r="C125" s="10">
-        <v>840</v>
-      </c>
-      <c r="D125" s="10">
-        <v>100</v>
-      </c>
-      <c r="E125" s="10">
+      <c r="C125" s="2">
+        <v>840</v>
+      </c>
+      <c r="D125" s="2">
+        <v>100</v>
+      </c>
+      <c r="E125" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="8">
+      <c r="A126">
         <v>2023</v>
       </c>
-      <c r="B126" s="10">
+      <c r="B126" s="2">
         <v>1973.7620689655173</v>
       </c>
-      <c r="C126" s="10">
-        <v>840</v>
-      </c>
-      <c r="D126" s="10">
-        <v>100</v>
-      </c>
-      <c r="E126" s="10">
+      <c r="C126" s="2">
+        <v>840</v>
+      </c>
+      <c r="D126" s="2">
+        <v>100</v>
+      </c>
+      <c r="E126" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="8">
+      <c r="A127">
         <v>2024</v>
       </c>
-      <c r="B127" s="10">
+      <c r="B127" s="2">
         <v>1962.893103448276</v>
       </c>
-      <c r="C127" s="10">
-        <v>840</v>
-      </c>
-      <c r="D127" s="10">
-        <v>100</v>
-      </c>
-      <c r="E127" s="10">
+      <c r="C127" s="2">
+        <v>840</v>
+      </c>
+      <c r="D127" s="2">
+        <v>100</v>
+      </c>
+      <c r="E127" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="8">
+      <c r="A128">
         <v>2025</v>
       </c>
-      <c r="B128" s="10">
+      <c r="B128" s="2">
         <v>1952.0241379310344</v>
       </c>
-      <c r="C128" s="10">
-        <v>840</v>
-      </c>
-      <c r="D128" s="10">
-        <v>100</v>
-      </c>
-      <c r="E128" s="10">
+      <c r="C128" s="2">
+        <v>840</v>
+      </c>
+      <c r="D128" s="2">
+        <v>100</v>
+      </c>
+      <c r="E128" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="8">
+      <c r="A129">
         <v>2026</v>
       </c>
-      <c r="B129" s="10">
+      <c r="B129" s="2">
         <v>1941.155172413793</v>
       </c>
-      <c r="C129" s="10">
-        <v>840</v>
-      </c>
-      <c r="D129" s="10">
-        <v>100</v>
-      </c>
-      <c r="E129" s="10">
+      <c r="C129" s="2">
+        <v>840</v>
+      </c>
+      <c r="D129" s="2">
+        <v>100</v>
+      </c>
+      <c r="E129" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="8">
+      <c r="A130">
         <v>2027</v>
       </c>
-      <c r="B130" s="10">
+      <c r="B130" s="2">
         <v>1930.2862068965517</v>
       </c>
-      <c r="C130" s="10">
-        <v>840</v>
-      </c>
-      <c r="D130" s="10">
-        <v>100</v>
-      </c>
-      <c r="E130" s="10">
+      <c r="C130" s="2">
+        <v>840</v>
+      </c>
+      <c r="D130" s="2">
+        <v>100</v>
+      </c>
+      <c r="E130" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="8">
+      <c r="A131">
         <v>2028</v>
       </c>
-      <c r="B131" s="10">
+      <c r="B131" s="2">
         <v>1919.4172413793103</v>
       </c>
-      <c r="C131" s="10">
-        <v>840</v>
-      </c>
-      <c r="D131" s="10">
-        <v>100</v>
-      </c>
-      <c r="E131" s="10">
+      <c r="C131" s="2">
+        <v>840</v>
+      </c>
+      <c r="D131" s="2">
+        <v>100</v>
+      </c>
+      <c r="E131" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="8">
+      <c r="A132">
         <v>2029</v>
       </c>
-      <c r="B132" s="10">
+      <c r="B132" s="2">
         <v>1908.548275862069</v>
       </c>
-      <c r="C132" s="10">
-        <v>840</v>
-      </c>
-      <c r="D132" s="10">
-        <v>100</v>
-      </c>
-      <c r="E132" s="10">
+      <c r="C132" s="2">
+        <v>840</v>
+      </c>
+      <c r="D132" s="2">
+        <v>100</v>
+      </c>
+      <c r="E132" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="8">
+      <c r="A133">
         <v>2030</v>
       </c>
-      <c r="B133" s="10">
+      <c r="B133" s="2">
         <v>1897.6793103448276</v>
       </c>
-      <c r="C133" s="10">
-        <v>840</v>
-      </c>
-      <c r="D133" s="10">
-        <v>100</v>
-      </c>
-      <c r="E133" s="10">
+      <c r="C133" s="2">
+        <v>840</v>
+      </c>
+      <c r="D133" s="2">
+        <v>100</v>
+      </c>
+      <c r="E133" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="8">
+      <c r="A134">
         <v>2031</v>
       </c>
-      <c r="B134" s="10">
+      <c r="B134" s="2">
         <v>1886.8103448275863</v>
       </c>
-      <c r="C134" s="10">
-        <v>840</v>
-      </c>
-      <c r="D134" s="10">
-        <v>100</v>
-      </c>
-      <c r="E134" s="10">
+      <c r="C134" s="2">
+        <v>840</v>
+      </c>
+      <c r="D134" s="2">
+        <v>100</v>
+      </c>
+      <c r="E134" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="8">
+      <c r="A135">
         <v>2032</v>
       </c>
-      <c r="B135" s="10">
+      <c r="B135" s="2">
         <v>1875.9413793103447</v>
       </c>
-      <c r="C135" s="10">
-        <v>840</v>
-      </c>
-      <c r="D135" s="10">
-        <v>100</v>
-      </c>
-      <c r="E135" s="10">
+      <c r="C135" s="2">
+        <v>840</v>
+      </c>
+      <c r="D135" s="2">
+        <v>100</v>
+      </c>
+      <c r="E135" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="8">
+      <c r="A136">
         <v>2033</v>
       </c>
-      <c r="B136" s="10">
+      <c r="B136" s="2">
         <v>1865.0724137931034</v>
       </c>
-      <c r="C136" s="10">
-        <v>840</v>
-      </c>
-      <c r="D136" s="10">
-        <v>100</v>
-      </c>
-      <c r="E136" s="10">
+      <c r="C136" s="2">
+        <v>840</v>
+      </c>
+      <c r="D136" s="2">
+        <v>100</v>
+      </c>
+      <c r="E136" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="8">
+      <c r="A137">
         <v>2034</v>
       </c>
-      <c r="B137" s="10">
+      <c r="B137" s="2">
         <v>1854.203448275862</v>
       </c>
-      <c r="C137" s="10">
-        <v>840</v>
-      </c>
-      <c r="D137" s="10">
-        <v>100</v>
-      </c>
-      <c r="E137" s="10">
+      <c r="C137" s="2">
+        <v>840</v>
+      </c>
+      <c r="D137" s="2">
+        <v>100</v>
+      </c>
+      <c r="E137" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="8">
+      <c r="A138">
         <v>2035</v>
       </c>
-      <c r="B138" s="10">
+      <c r="B138" s="2">
         <v>1843.3344827586207</v>
       </c>
-      <c r="C138" s="10">
-        <v>840</v>
-      </c>
-      <c r="D138" s="10">
-        <v>100</v>
-      </c>
-      <c r="E138" s="10">
+      <c r="C138" s="2">
+        <v>840</v>
+      </c>
+      <c r="D138" s="2">
+        <v>100</v>
+      </c>
+      <c r="E138" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="8">
+      <c r="A139">
         <v>2036</v>
       </c>
-      <c r="B139" s="10">
+      <c r="B139" s="2">
         <v>1832.4655172413793</v>
       </c>
-      <c r="C139" s="10">
-        <v>840</v>
-      </c>
-      <c r="D139" s="10">
-        <v>100</v>
-      </c>
-      <c r="E139" s="10">
+      <c r="C139" s="2">
+        <v>840</v>
+      </c>
+      <c r="D139" s="2">
+        <v>100</v>
+      </c>
+      <c r="E139" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="8">
+      <c r="A140">
         <v>2037</v>
       </c>
-      <c r="B140" s="10">
+      <c r="B140" s="2">
         <v>1821.596551724138</v>
       </c>
-      <c r="C140" s="10">
-        <v>840</v>
-      </c>
-      <c r="D140" s="10">
-        <v>100</v>
-      </c>
-      <c r="E140" s="10">
+      <c r="C140" s="2">
+        <v>840</v>
+      </c>
+      <c r="D140" s="2">
+        <v>100</v>
+      </c>
+      <c r="E140" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="8">
+      <c r="A141">
         <v>2038</v>
       </c>
-      <c r="B141" s="10">
+      <c r="B141" s="2">
         <v>1810.7275862068966</v>
       </c>
-      <c r="C141" s="10">
-        <v>840</v>
-      </c>
-      <c r="D141" s="10">
-        <v>100</v>
-      </c>
-      <c r="E141" s="10">
+      <c r="C141" s="2">
+        <v>840</v>
+      </c>
+      <c r="D141" s="2">
+        <v>100</v>
+      </c>
+      <c r="E141" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="8">
+      <c r="A142">
         <v>2039</v>
       </c>
-      <c r="B142" s="10">
+      <c r="B142" s="2">
         <v>1799.8586206896553</v>
       </c>
-      <c r="C142" s="10">
-        <v>840</v>
-      </c>
-      <c r="D142" s="10">
-        <v>100</v>
-      </c>
-      <c r="E142" s="10">
+      <c r="C142" s="2">
+        <v>840</v>
+      </c>
+      <c r="D142" s="2">
+        <v>100</v>
+      </c>
+      <c r="E142" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="8">
+      <c r="A143">
         <v>2040</v>
       </c>
-      <c r="B143" s="10">
+      <c r="B143" s="2">
         <v>1788.9896551724137</v>
       </c>
-      <c r="C143" s="10">
-        <v>840</v>
-      </c>
-      <c r="D143" s="10">
-        <v>100</v>
-      </c>
-      <c r="E143" s="10">
+      <c r="C143" s="2">
+        <v>840</v>
+      </c>
+      <c r="D143" s="2">
+        <v>100</v>
+      </c>
+      <c r="E143" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="8">
+      <c r="A144">
         <v>2041</v>
       </c>
-      <c r="B144" s="10">
+      <c r="B144" s="2">
         <v>1778.1206896551723</v>
       </c>
-      <c r="C144" s="10">
-        <v>840</v>
-      </c>
-      <c r="D144" s="10">
-        <v>100</v>
-      </c>
-      <c r="E144" s="10">
+      <c r="C144" s="2">
+        <v>840</v>
+      </c>
+      <c r="D144" s="2">
+        <v>100</v>
+      </c>
+      <c r="E144" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="8">
+      <c r="A145">
         <v>2042</v>
       </c>
-      <c r="B145" s="10">
+      <c r="B145" s="2">
         <v>1767.251724137931</v>
       </c>
-      <c r="C145" s="10">
-        <v>840</v>
-      </c>
-      <c r="D145" s="10">
-        <v>100</v>
-      </c>
-      <c r="E145" s="10">
+      <c r="C145" s="2">
+        <v>840</v>
+      </c>
+      <c r="D145" s="2">
+        <v>100</v>
+      </c>
+      <c r="E145" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="8">
+      <c r="A146">
         <v>2043</v>
       </c>
-      <c r="B146" s="10">
+      <c r="B146" s="2">
         <v>1756.3827586206896</v>
       </c>
-      <c r="C146" s="10">
-        <v>840</v>
-      </c>
-      <c r="D146" s="10">
-        <v>100</v>
-      </c>
-      <c r="E146" s="10">
+      <c r="C146" s="2">
+        <v>840</v>
+      </c>
+      <c r="D146" s="2">
+        <v>100</v>
+      </c>
+      <c r="E146" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="8">
+      <c r="A147">
         <v>2044</v>
       </c>
-      <c r="B147" s="10">
+      <c r="B147" s="2">
         <v>1745.5137931034483</v>
       </c>
-      <c r="C147" s="10">
-        <v>840</v>
-      </c>
-      <c r="D147" s="10">
-        <v>100</v>
-      </c>
-      <c r="E147" s="10">
+      <c r="C147" s="2">
+        <v>840</v>
+      </c>
+      <c r="D147" s="2">
+        <v>100</v>
+      </c>
+      <c r="E147" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="8">
+      <c r="A148">
         <v>2045</v>
       </c>
-      <c r="B148" s="10">
+      <c r="B148" s="2">
         <v>1734.6448275862067</v>
       </c>
-      <c r="C148" s="10">
-        <v>840</v>
-      </c>
-      <c r="D148" s="10">
-        <v>100</v>
-      </c>
-      <c r="E148" s="10">
+      <c r="C148" s="2">
+        <v>840</v>
+      </c>
+      <c r="D148" s="2">
+        <v>100</v>
+      </c>
+      <c r="E148" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="8">
+      <c r="A149">
         <v>2046</v>
       </c>
-      <c r="B149" s="10">
+      <c r="B149" s="2">
         <v>1723.7758620689656</v>
       </c>
-      <c r="C149" s="10">
-        <v>840</v>
-      </c>
-      <c r="D149" s="10">
-        <v>100</v>
-      </c>
-      <c r="E149" s="10">
+      <c r="C149" s="2">
+        <v>840</v>
+      </c>
+      <c r="D149" s="2">
+        <v>100</v>
+      </c>
+      <c r="E149" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="8">
+      <c r="A150">
         <v>2047</v>
       </c>
-      <c r="B150" s="10">
+      <c r="B150" s="2">
         <v>1712.906896551724</v>
       </c>
-      <c r="C150" s="10">
-        <v>840</v>
-      </c>
-      <c r="D150" s="10">
-        <v>100</v>
-      </c>
-      <c r="E150" s="10">
+      <c r="C150" s="2">
+        <v>840</v>
+      </c>
+      <c r="D150" s="2">
+        <v>100</v>
+      </c>
+      <c r="E150" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="8">
+      <c r="A151">
         <v>2048</v>
       </c>
-      <c r="B151" s="10">
+      <c r="B151" s="2">
         <v>1702.0379310344827</v>
       </c>
-      <c r="C151" s="10">
-        <v>840</v>
-      </c>
-      <c r="D151" s="10">
-        <v>100</v>
-      </c>
-      <c r="E151" s="10">
+      <c r="C151" s="2">
+        <v>840</v>
+      </c>
+      <c r="D151" s="2">
+        <v>100</v>
+      </c>
+      <c r="E151" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="8">
+      <c r="A152">
         <v>2049</v>
       </c>
-      <c r="B152" s="10">
+      <c r="B152" s="2">
         <v>1691.1689655172413</v>
       </c>
-      <c r="C152" s="10">
-        <v>840</v>
-      </c>
-      <c r="D152" s="10">
-        <v>100</v>
-      </c>
-      <c r="E152" s="10">
+      <c r="C152" s="2">
+        <v>840</v>
+      </c>
+      <c r="D152" s="2">
+        <v>100</v>
+      </c>
+      <c r="E152" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="8">
+      <c r="A153">
         <v>2050</v>
       </c>
-      <c r="B153" s="10">
+      <c r="B153" s="2">
         <v>1680.3</v>
       </c>
-      <c r="C153" s="10">
-        <v>840</v>
-      </c>
-      <c r="D153" s="10">
-        <v>100</v>
-      </c>
-      <c r="E153" s="10">
+      <c r="C153" s="2">
+        <v>840</v>
+      </c>
+      <c r="D153" s="2">
+        <v>100</v>
+      </c>
+      <c r="E153" s="2">
         <v>153</v>
       </c>
     </row>

--- a/input_data_steel.xlsx
+++ b/input_data_steel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TakumaWatari/Dropbox/GitHub/feasible-material-supply/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CD5BAF-BD8F-D045-B607-ECA0A154F2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3B5D3B-B72A-C24C-B561-6DC8C325469F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-340" yWindow="-18300" windowWidth="27900" windowHeight="16800" xr2:uid="{3110FA2E-7F46-FC43-9682-B7B27E4CE74F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30240" windowHeight="19640" xr2:uid="{3110FA2E-7F46-FC43-9682-B7B27E4CE74F}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="12" r:id="rId1"/>
@@ -264,9 +264,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -304,7 +304,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -410,7 +410,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -552,7 +552,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -756,7 +756,7 @@
         <v>58.01576841758321</v>
       </c>
       <c r="P3" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q3" s="2">
         <v>1647.4050279999999</v>
@@ -818,7 +818,7 @@
         <v>58.098979567739903</v>
       </c>
       <c r="P4" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q4" s="2">
         <v>1658.7856429999999</v>
@@ -880,7 +880,7 @@
         <v>64.606234152809535</v>
       </c>
       <c r="P5" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q5" s="2">
         <v>1672.564382</v>
@@ -942,7 +942,7 @@
         <v>67.991771318853466</v>
       </c>
       <c r="P6" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q6" s="2">
         <v>1687.0128050000001</v>
@@ -1004,7 +1004,7 @@
         <v>69.142308717749444</v>
       </c>
       <c r="P7" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q7" s="2">
         <v>1701.6474040000001</v>
@@ -1066,7 +1066,7 @@
         <v>84.913010780653266</v>
       </c>
       <c r="P8" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q8" s="2">
         <v>1716.4730509999999</v>
@@ -1128,7 +1128,7 @@
         <v>84.877631040736674</v>
       </c>
       <c r="P9" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q9" s="2">
         <v>1731.494784</v>
@@ -1190,7 +1190,7 @@
         <v>109.8328053820296</v>
       </c>
       <c r="P10" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q10" s="2">
         <v>1746.736854</v>
@@ -1252,7 +1252,7 @@
         <v>80.2851832356682</v>
       </c>
       <c r="P11" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q11" s="2">
         <v>1762.2002070000001</v>
@@ -1314,7 +1314,7 @@
         <v>99.404812922494827</v>
       </c>
       <c r="P12" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q12" s="2">
         <v>1777.0677479999999</v>
@@ -1376,7 +1376,7 @@
         <v>111.0845595611937</v>
       </c>
       <c r="P13" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q13" s="2">
         <v>1793.3235999999999</v>
@@ -1438,7 +1438,7 @@
         <v>110.37651699322878</v>
       </c>
       <c r="P14" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q14" s="2">
         <v>1804.9206839999999</v>
@@ -1500,7 +1500,7 @@
         <v>131.16669973943513</v>
       </c>
       <c r="P15" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q15" s="2">
         <v>1817.9909520000001</v>
@@ -1562,7 +1562,7 @@
         <v>139.65124143016118</v>
       </c>
       <c r="P16" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q16" s="2">
         <v>1830.4611870000001</v>
@@ -1624,7 +1624,7 @@
         <v>107.34576717540405</v>
       </c>
       <c r="P17" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q17" s="2">
         <v>1843.1315890000001</v>
@@ -1686,7 +1686,7 @@
         <v>112.17132260254463</v>
       </c>
       <c r="P18" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q18" s="2">
         <v>1855.9490269999999</v>
@@ -1748,7 +1748,7 @@
         <v>141.18514621171303</v>
       </c>
       <c r="P19" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q19" s="2">
         <v>1868.851504</v>
@@ -1810,7 +1810,7 @@
         <v>145.87771745364191</v>
       </c>
       <c r="P20" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q20" s="2">
         <v>1881.8531760000001</v>
@@ -1872,7 +1872,7 @@
         <v>137.10656386810942</v>
       </c>
       <c r="P21" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q21" s="2">
         <v>1895.0370419999999</v>
@@ -1934,7 +1934,7 @@
         <v>105.25680665781653</v>
       </c>
       <c r="P22" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q22" s="2">
         <v>1909.0443090000001</v>
@@ -1996,7 +1996,7 @@
         <v>129.86061305069737</v>
       </c>
       <c r="P23" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q23" s="2">
         <v>1926.2174319999999</v>
@@ -2058,7 +2058,7 @@
         <v>80.572303487637569</v>
       </c>
       <c r="P24" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q24" s="2">
         <v>1939.5878259999999</v>
@@ -2120,7 +2120,7 @@
         <v>128.4010340326206</v>
       </c>
       <c r="P25" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q25" s="2">
         <v>1955.9716309999999</v>
@@ -2182,7 +2182,7 @@
         <v>141.60356393242131</v>
       </c>
       <c r="P26" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q26" s="2">
         <v>1973.057174</v>
@@ -2244,7 +2244,7 @@
         <v>145.74143629977709</v>
       </c>
       <c r="P27" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q27" s="2">
         <v>1990.416385</v>
@@ -2306,7 +2306,7 @@
         <v>163.47161039890699</v>
       </c>
       <c r="P28" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q28" s="2">
         <v>2008.0520879999999</v>
@@ -2368,7 +2368,7 @@
         <v>170.00241371847858</v>
       </c>
       <c r="P29" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q29" s="2">
         <v>2025.945381</v>
@@ -2430,7 +2430,7 @@
         <v>186.1406097784191</v>
       </c>
       <c r="P30" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q30" s="2">
         <v>2044.09707</v>
@@ -2492,7 +2492,7 @@
         <v>199.95778646992915</v>
       </c>
       <c r="P31" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q31" s="2">
         <v>2062.5439719999999</v>
@@ -2554,7 +2554,7 @@
         <v>220.3186021415685</v>
       </c>
       <c r="P32" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q32" s="2">
         <v>2081.6834680000002</v>
@@ -2616,7 +2616,7 @@
         <v>174.68280945272835</v>
       </c>
       <c r="P33" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q33" s="2">
         <v>2104.0673870000001</v>
@@ -2678,7 +2678,7 @@
         <v>127.02420431046809</v>
       </c>
       <c r="P34" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q34" s="2">
         <v>2122.176586</v>
@@ -2740,7 +2740,7 @@
         <v>92.882337643267491</v>
       </c>
       <c r="P35" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q35" s="2">
         <v>2143.5175250000002</v>
@@ -2802,7 +2802,7 @@
         <v>124.2424693593411</v>
       </c>
       <c r="P36" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q36" s="2">
         <v>2165.5404279999998</v>
@@ -2864,7 +2864,7 @@
         <v>152.01188943542479</v>
       </c>
       <c r="P37" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q37" s="2">
         <v>2187.8367929999999</v>
@@ -2926,7 +2926,7 @@
         <v>183.8519308695254</v>
       </c>
       <c r="P38" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q38" s="2">
         <v>2210.4129720000001</v>
@@ -2988,7 +2988,7 @@
         <v>230.66232269879777</v>
       </c>
       <c r="P39" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q39" s="2">
         <v>2233.367401</v>
@@ -3050,7 +3050,7 @@
         <v>253.45575670828131</v>
       </c>
       <c r="P40" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q40" s="2">
         <v>2256.6718660000001</v>
@@ -3112,7 +3112,7 @@
         <v>205.23469083492827</v>
       </c>
       <c r="P41" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q41" s="2">
         <v>2280.3429070000002</v>
@@ -3174,7 +3174,7 @@
         <v>256.70883379694749</v>
       </c>
       <c r="P42" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q42" s="2">
         <v>2303.096438</v>
@@ -3236,7 +3236,7 @@
         <v>264.04285911466741</v>
       </c>
       <c r="P43" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q43" s="2">
         <v>2327.3577439999999</v>
@@ -3298,7 +3298,7 @@
         <v>271.11707189034229</v>
       </c>
       <c r="P44" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q44" s="2">
         <v>2344.7885339999998</v>
@@ -3360,7 +3360,7 @@
         <v>280.02779520775744</v>
       </c>
       <c r="P45" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q45" s="2">
         <v>2363.887111</v>
@@ -3422,7 +3422,7 @@
         <v>293.88639685625338</v>
       </c>
       <c r="P46" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q46" s="2">
         <v>2381.7589389999998</v>
@@ -3484,7 +3484,7 @@
         <v>277.27671398167075</v>
       </c>
       <c r="P47" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q47" s="2">
         <v>2399.6599200000001</v>
@@ -3546,7 +3546,7 @@
         <v>206.31029086380863</v>
       </c>
       <c r="P48" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q48" s="2">
         <v>2417.4137000000001</v>
@@ -3608,7 +3608,7 @@
         <v>203.01329250568452</v>
       </c>
       <c r="P49" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q49" s="2">
         <v>2435.0486019999998</v>
@@ -3670,7 +3670,7 @@
         <v>247.45022304547462</v>
       </c>
       <c r="P50" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q50" s="2">
         <v>2454.0458309999999</v>
@@ -3732,7 +3732,7 @@
         <v>281.69403219282509</v>
       </c>
       <c r="P51" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q51" s="2">
         <v>2474.6480900000001</v>
@@ -3794,7 +3794,7 @@
         <v>290.33041033496988</v>
       </c>
       <c r="P52" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q52" s="2">
         <v>2500.8217690000001</v>
@@ -3856,7 +3856,7 @@
         <v>344.08685524254139</v>
       </c>
       <c r="P53" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q53" s="2">
         <v>2536.4310180000002</v>
@@ -3918,7 +3918,7 @@
         <v>383.41580214512265</v>
       </c>
       <c r="P54" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q54" s="2">
         <v>2584.0342270000001</v>
@@ -3980,7 +3980,7 @@
         <v>383.05161930584086</v>
       </c>
       <c r="P55" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q55" s="2">
         <v>2630.8616900000002</v>
@@ -4042,7 +4042,7 @@
         <v>425.79502924950219</v>
       </c>
       <c r="P56" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q56" s="2">
         <v>2677.6090609999901</v>
@@ -4104,7 +4104,7 @@
         <v>405.65388046099929</v>
       </c>
       <c r="P57" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q57" s="2">
         <v>2724.8467539999901</v>
@@ -4166,7 +4166,7 @@
         <v>482.4755624606031</v>
       </c>
       <c r="P58" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q58" s="2">
         <v>2773.0199149999999</v>
@@ -4228,7 +4228,7 @@
         <v>509.7028255856244</v>
       </c>
       <c r="P59" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q59" s="2">
         <v>2822.4432539999898</v>
@@ -4290,7 +4290,7 @@
         <v>528.44033888797367</v>
       </c>
       <c r="P60" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q60" s="2">
         <v>2873.3060580000001</v>
@@ -4352,7 +4352,7 @@
         <v>495.86395582172679</v>
       </c>
       <c r="P61" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q61" s="2">
         <v>2925.6866799999998</v>
@@ -4414,7 +4414,7 @@
         <v>549.47624487408746</v>
       </c>
       <c r="P62" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q62" s="2">
         <v>2979.5761470000002</v>
@@ -4476,7 +4476,7 @@
         <v>622.68320027048708</v>
       </c>
       <c r="P63" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q63" s="2">
         <v>3034.9497150000002</v>
@@ -4538,7 +4538,7 @@
         <v>631.59589357299296</v>
       </c>
       <c r="P64" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q64" s="2">
         <v>3091.8435129999998</v>
@@ -4600,7 +4600,7 @@
         <v>648.70470842175223</v>
       </c>
       <c r="P65" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q65" s="2">
         <v>3150.4207609999999</v>
@@ -4662,7 +4662,7 @@
         <v>694.14634815621037</v>
       </c>
       <c r="P66" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q66" s="2">
         <v>3211.0009460000001</v>
@@ -4724,7 +4724,7 @@
         <v>783.27218464420696</v>
       </c>
       <c r="P67" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q67" s="2">
         <v>3273.9782719999998</v>
@@ -4786,7 +4786,7 @@
         <v>822.80308262828214</v>
       </c>
       <c r="P68" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q68" s="2">
         <v>3339.5835099999999</v>
@@ -4848,7 +4848,7 @@
         <v>849.80971569100552</v>
       </c>
       <c r="P69" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q69" s="2">
         <v>3407.9226309999999</v>
@@ -4910,7 +4910,7 @@
         <v>876.80507834574576</v>
       </c>
       <c r="P70" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q70" s="2">
         <v>3478.7701040000002</v>
@@ -4972,7 +4972,7 @@
         <v>936.23218625866377</v>
       </c>
       <c r="P71" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q71" s="2">
         <v>3551.599436</v>
@@ -5034,7 +5034,7 @@
         <v>1007.9847405745545</v>
       </c>
       <c r="P72" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q72" s="2">
         <v>3625.680965</v>
@@ -5096,7 +5096,7 @@
         <v>1039.568347553967</v>
       </c>
       <c r="P73" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q73" s="2">
         <v>3700.437042</v>
@@ -5158,7 +5158,7 @@
         <v>1014.473962291967</v>
       </c>
       <c r="P74" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q74" s="2">
         <v>3775.7600299999999</v>
@@ -5220,7 +5220,7 @@
         <v>1090.3420352474607</v>
       </c>
       <c r="P75" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q75" s="2">
         <v>3851.650588</v>
@@ -5282,7 +5282,7 @@
         <v>1199.5815979648673</v>
       </c>
       <c r="P76" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q76" s="2">
         <v>3927.7805189999999</v>
@@ -5344,7 +5344,7 @@
         <v>1295.836187709376</v>
       </c>
       <c r="P77" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q77" s="2">
         <v>4003.7941780000001</v>
@@ -5406,7 +5406,7 @@
         <v>1183.283645935642</v>
       </c>
       <c r="P78" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q78" s="2">
         <v>4079.480474</v>
@@ -5468,7 +5468,7 @@
         <v>1231.3677608604557</v>
       </c>
       <c r="P79" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q79" s="2">
         <v>4154.666827</v>
@@ -5530,7 +5530,7 @@
         <v>1223.1116204703264</v>
       </c>
       <c r="P80" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q80" s="2">
         <v>4229.5059190000002</v>
@@ -5592,7 +5592,7 @@
         <v>1282.536693597496</v>
       </c>
       <c r="P81" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q81" s="2">
         <v>4304.5335989999903</v>
@@ -5654,7 +5654,7 @@
         <v>1330.4971366768652</v>
       </c>
       <c r="P82" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q82" s="2">
         <v>4380.5061850000002</v>
@@ -5716,7 +5716,7 @@
         <v>1267.016920540698</v>
       </c>
       <c r="P83" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q83" s="2">
         <v>4458.0034660000001</v>
@@ -5778,7 +5778,7 @@
         <v>1248.1898187272086</v>
       </c>
       <c r="P84" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q84" s="2">
         <v>4536.9966189999996</v>
@@ -5840,7 +5840,7 @@
         <v>1128.8106379917347</v>
       </c>
       <c r="P85" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q85" s="2">
         <v>4617.3865260000002</v>
@@ -5902,7 +5902,7 @@
         <v>1159.206201692889</v>
       </c>
       <c r="P86" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q86" s="2">
         <v>4699.5691870000001</v>
@@ -5964,7 +5964,7 @@
         <v>1233.9264234751768</v>
       </c>
       <c r="P87" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q87" s="2">
         <v>4784.0115169999999</v>
@@ -6026,7 +6026,7 @@
         <v>1259.3629172212907</v>
       </c>
       <c r="P88" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q88" s="2">
         <v>4870.9216660000002</v>
@@ -6088,7 +6088,7 @@
         <v>1209.1062048846602</v>
       </c>
       <c r="P89" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q89" s="2">
         <v>4960.5680000000002</v>
@@ -6150,7 +6150,7 @@
         <v>1216.8940830604281</v>
       </c>
       <c r="P90" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q90" s="2">
         <v>5052.5219980000002</v>
@@ -6212,7 +6212,7 @@
         <v>1286.6422892235473</v>
       </c>
       <c r="P91" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q91" s="2">
         <v>5145.4259940000002</v>
@@ -6274,7 +6274,7 @@
         <v>1314.6679935476182</v>
       </c>
       <c r="P92" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q92" s="2">
         <v>5237.4414339999903</v>
@@ -6336,7 +6336,7 @@
         <v>1292.294595336537</v>
       </c>
       <c r="P93" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q93" s="2">
         <v>5327.231041</v>
@@ -6398,7 +6398,7 @@
         <v>1203.5847566386819</v>
       </c>
       <c r="P94" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q94" s="2">
         <v>5414.2893829999903</v>
@@ -6460,7 +6460,7 @@
         <v>1169.504381132411</v>
       </c>
       <c r="P95" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q95" s="2">
         <v>5498.9198929999902</v>
@@ -6522,7 +6522,7 @@
         <v>1154.9770749946013</v>
       </c>
       <c r="P96" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q96" s="2">
         <v>5581.5975979999903</v>
@@ -6584,7 +6584,7 @@
         <v>1150.6842676263941</v>
       </c>
       <c r="P97" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q97" s="2">
         <v>5663.1504279999908</v>
@@ -6646,7 +6646,7 @@
         <v>1175.2932956765544</v>
       </c>
       <c r="P98" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q98" s="2">
         <v>5744.2129299999997</v>
@@ -6708,7 +6708,7 @@
         <v>1169.8615714650773</v>
       </c>
       <c r="P99" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q99" s="2">
         <v>5824.8919310000001</v>
@@ -6770,7 +6770,7 @@
         <v>1239.5288109592711</v>
       </c>
       <c r="P100" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q100" s="2">
         <v>5905.0456469999999</v>
@@ -6832,7 +6832,7 @@
         <v>1209.2394436443155</v>
       </c>
       <c r="P101" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q101" s="2">
         <v>5984.7940749999998</v>
@@ -6894,7 +6894,7 @@
         <v>1218.9116153921025</v>
       </c>
       <c r="P102" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q102" s="2">
         <v>6064.2390329999998</v>
@@ -6956,7 +6956,7 @@
         <v>1323.4555774273908</v>
       </c>
       <c r="P103" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q103" s="2">
         <v>6143.4938060000004</v>
@@ -7018,7 +7018,7 @@
         <v>1334.093674562652</v>
       </c>
       <c r="P104" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q104" s="2">
         <v>6222.6265309999999</v>
@@ -7080,7 +7080,7 @@
         <v>1417.557941482027</v>
       </c>
       <c r="P105" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q105" s="2">
         <v>6301.7731720000002</v>
@@ -7142,7 +7142,7 @@
         <v>1527.1034403400395</v>
       </c>
       <c r="P106" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q106" s="2">
         <v>6381.1851409999999</v>
@@ -7204,7 +7204,7 @@
         <v>1689.3630480009624</v>
       </c>
       <c r="P107" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q107" s="2">
         <v>6461.1593910000001</v>
@@ -7266,7 +7266,7 @@
         <v>1829.9223780983073</v>
       </c>
       <c r="P108" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q108" s="2">
         <v>6541.9069559999998</v>
@@ -7328,7 +7328,7 @@
         <v>2002.0916721932667</v>
       </c>
       <c r="P109" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q109" s="2">
         <v>6623.5179170000001</v>
@@ -7390,7 +7390,7 @@
         <v>2177.6203509190209</v>
       </c>
       <c r="P110" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q110" s="2">
         <v>6705.9466429999902</v>
@@ -7452,7 +7452,7 @@
         <v>2157.0750358163937</v>
       </c>
       <c r="P111" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q111" s="2">
         <v>6789.0886719999999</v>
@@ -7514,7 +7514,7 @@
         <v>2058.4257893483673</v>
       </c>
       <c r="P112" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q112" s="2">
         <v>6872.7669880000003</v>
@@ -7576,7 +7576,7 @@
         <v>2363.6845040487892</v>
       </c>
       <c r="P113" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q113" s="2">
         <v>6956.8235880000002</v>
@@ -7638,7 +7638,7 @@
         <v>2533.3420927675861</v>
       </c>
       <c r="P114" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q114" s="2">
         <v>7041.194168</v>
@@ -7700,7 +7700,7 @@
         <v>2598.2563185275299</v>
       </c>
       <c r="P115" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q115" s="2">
         <v>7125.8279570000004</v>
@@ -7762,7 +7762,7 @@
         <v>2827.3359021218243</v>
       </c>
       <c r="P116" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q116" s="2">
         <v>7210.5820409999997</v>
@@ -7824,7 +7824,7 @@
         <v>2868.3807932810578</v>
       </c>
       <c r="P117" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q117" s="2">
         <v>7295.2907590000004</v>
@@ -7886,7 +7886,7 @@
         <v>2793.4807148213777</v>
       </c>
       <c r="P118" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q118" s="2">
         <v>7379.7969670000002</v>
@@ -7948,7 +7948,7 @@
         <v>2774.4182972169619</v>
       </c>
       <c r="P119" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q119" s="2">
         <v>7464.0219339999903</v>
@@ -8010,7 +8010,7 @@
         <v>2876.6413177768291</v>
       </c>
       <c r="P120" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q120" s="2">
         <v>7547.8589000000002</v>
@@ -8072,7 +8072,7 @@
         <v>3021.9161824450102</v>
       </c>
       <c r="P121" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q121" s="2">
         <v>7631.0911130000004</v>
@@ -8134,7 +8134,7 @@
         <v>3130.4257274931788</v>
       </c>
       <c r="P122" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q122" s="2">
         <v>7713.4682050000001</v>
@@ -8196,7 +8196,7 @@
         <v>3160.2768320165706</v>
       </c>
       <c r="P123" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q123" s="2">
         <v>7794.7987289999901</v>
@@ -8258,7 +8258,7 @@
         <v>3252.3695608627754</v>
       </c>
       <c r="P124" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q124" s="2">
         <v>7874.9657319999997</v>
@@ -8312,7 +8312,7 @@
         <v>3252.3695608627754</v>
       </c>
       <c r="P125" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q125" s="2">
         <v>7953.952577</v>
@@ -8360,7 +8360,7 @@
         <v>3264.821306371261</v>
       </c>
       <c r="P126" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q126" s="2">
         <v>8031.800338</v>
@@ -8408,7 +8408,7 @@
         <v>3247.5669448583767</v>
       </c>
       <c r="P127" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q127" s="2">
         <v>8108.6052550000004</v>
@@ -8456,7 +8456,7 @@
         <v>3205.9566367762795</v>
       </c>
       <c r="P128" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q128" s="2">
         <v>8184.4374529999996</v>
@@ -8504,7 +8504,7 @@
         <v>3144.6084969122612</v>
       </c>
       <c r="P129" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q129" s="2">
         <v>8259.2766510000001</v>
@@ -8552,7 +8552,7 @@
         <v>3067.4979197663015</v>
       </c>
       <c r="P130" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q130" s="2">
         <v>8333.0783179999999</v>
@@ -8600,7 +8600,7 @@
         <v>2978.0366730984279</v>
       </c>
       <c r="P131" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q131" s="2">
         <v>8405.8633009999994</v>
@@ -8648,7 +8648,7 @@
         <v>2879.1428855183572</v>
       </c>
       <c r="P132" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q132" s="2">
         <v>8477.66072299999</v>
@@ -8696,7 +8696,7 @@
         <v>2773.3029334989733</v>
       </c>
       <c r="P133" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q133" s="2">
         <v>8548.4873709999902</v>
@@ -8744,7 +8744,7 @@
         <v>2662.626125338958</v>
       </c>
       <c r="P134" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q134" s="2">
         <v>8618.3494539999992</v>
@@ -8792,7 +8792,7 @@
         <v>2548.8929830740731</v>
       </c>
       <c r="P135" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q135" s="2">
         <v>8687.2278729999998</v>
@@ -8840,7 +8840,7 @@
         <v>2433.5978369697978</v>
       </c>
       <c r="P136" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q136" s="2">
         <v>8755.0835119999992</v>
@@ -8888,7 +8888,7 @@
         <v>2317.9863699683642</v>
       </c>
       <c r="P137" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q137" s="2">
         <v>8821.8627049999996</v>
@@ -8936,7 +8936,7 @@
         <v>2203.0886803665826</v>
       </c>
       <c r="P138" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q138" s="2">
         <v>8887.5242290000006</v>
@@ -8984,7 +8984,7 @@
         <v>2089.7483692193537</v>
       </c>
       <c r="P139" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q139" s="2">
         <v>8952.0488850000002</v>
@@ -9032,7 +9032,7 @@
         <v>1978.6481037367751</v>
       </c>
       <c r="P140" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q140" s="2">
         <v>9015.4376159999993</v>
@@ -9080,7 +9080,7 @@
         <v>1870.3320585873389</v>
       </c>
       <c r="P141" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q141" s="2">
         <v>9077.6936449999994</v>
@@ -9128,7 +9128,7 @@
         <v>1765.2255929233716</v>
       </c>
       <c r="P142" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q142" s="2">
         <v>9138.8285620000006</v>
@@ -9176,7 +9176,7 @@
         <v>1663.6524815578041</v>
       </c>
       <c r="P143" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q143" s="2">
         <v>9198.8473819999999</v>
@@ -9224,7 +9224,7 @@
         <v>1565.8499835506559</v>
       </c>
       <c r="P144" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q144" s="2">
         <v>9257.7454830000006</v>
@@ -9272,7 +9272,7 @@
         <v>1471.9820000669426</v>
       </c>
       <c r="P145" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q145" s="2">
         <v>9315.5081529999898</v>
@@ -9320,7 +9320,7 @@
         <v>1382.150545348625</v>
       </c>
       <c r="P146" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q146" s="2">
         <v>9372.1182470000003</v>
@@ -9368,7 +9368,7 @@
         <v>1296.4057296460874</v>
       </c>
       <c r="P147" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q147" s="2">
         <v>9427.5553820000005</v>
@@ -9416,7 +9416,7 @@
         <v>1214.7544306607747</v>
       </c>
       <c r="P148" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q148" s="2">
         <v>9481.8032719999992</v>
@@ -9464,7 +9464,7 @@
         <v>1137.1678101743476</v>
       </c>
       <c r="P149" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q149" s="2">
         <v>9534.8546729999998</v>
@@ -9512,7 +9512,7 @@
         <v>1063.5878148249999</v>
       </c>
       <c r="P150" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q150" s="2">
         <v>9586.7077489999992</v>
@@ -9560,7 +9560,7 @@
         <v>993.93278420909337</v>
       </c>
       <c r="P151" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q151" s="2">
         <v>9637.3573199999992</v>
@@ -9608,7 +9608,7 @@
         <v>928.10227543048893</v>
       </c>
       <c r="P152" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q152" s="2">
         <v>9686.8001459999996</v>
@@ -9656,7 +9656,7 @@
         <v>865.98120070686343</v>
       </c>
       <c r="P153" s="2">
-        <v>1222.232</v>
+        <v>500</v>
       </c>
       <c r="Q153" s="2">
         <v>9735.0339000000004</v>

--- a/input_data_steel.xlsx
+++ b/input_data_steel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TakumaWatari/Dropbox/GitHub/feasible-material-supply/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3B5D3B-B72A-C24C-B561-6DC8C325469F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F351937C-CECE-574B-A745-8C13251EF80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30240" windowHeight="19640" xr2:uid="{3110FA2E-7F46-FC43-9682-B7B27E4CE74F}"/>
   </bookViews>
@@ -563,7 +563,7 @@
   <dimension ref="A1:U153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight"/>

--- a/input_data_steel.xlsx
+++ b/input_data_steel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TakumaWatari/Dropbox/GitHub/feasible-material-supply/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F351937C-CECE-574B-A745-8C13251EF80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63749541-B8A0-5E4D-8896-A129ADCE03A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30240" windowHeight="19640" xr2:uid="{3110FA2E-7F46-FC43-9682-B7B27E4CE74F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" xr2:uid="{3110FA2E-7F46-FC43-9682-B7B27E4CE74F}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="12" r:id="rId1"/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:U153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight"/>
